--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="640" windowWidth="27980" windowHeight="22100" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="680" windowWidth="33360" windowHeight="22420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:XFD58"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="34" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="35" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="36" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="37" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="38" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="39" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="40" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="41" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="42" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="43" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="44" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="45" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>

--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="680" windowWidth="33360" windowHeight="22420" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="1200" windowWidth="35100" windowHeight="22000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="172">
   <si>
     <t>BLOCK_GROUP BlockGrouping[] = {</t>
     <phoneticPr fontId="1"/>
@@ -117,12 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BP_FLOW</t>
-  </si>
-  <si>
-    <t>BP_SIN</t>
-  </si>
-  <si>
     <t>"SIN"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,6 +175,544 @@
   </si>
   <si>
     <t xml:space="preserve">22, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 2, 4, 6, 8, 10, 13, 15, 17, 19, 21, 23,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 3, 5, 7, 9, 11, 12, 14, 16, 18, 20, 22,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_OUT"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_SIN_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 11, 12, 13, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 9, 14, 15, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 7, 16, 17, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 5, 18, 19, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 3, 20, 21,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 22, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_IN"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_OUT"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_FLOW_6</t>
+  </si>
+  <si>
+    <t>"FLOW_IN"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_FLOW_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_SIN_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_TWIST"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 21, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 19, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 17, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 15, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 13, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12, 11, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14, 9, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16, 7, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18, 5, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 3, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">22, 1, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_TWIST_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 20, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 18, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 16, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9, 14, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11, 12, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 10, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 8, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17, 6, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19, 4, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21, 2, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23, 0, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_TWIST_OUT"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 12, 1, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 14, 3, 21, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6, 16, 5, 19, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 18, 7, 17, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 20, 9, 15, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 22, 11, 13, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_TWIST_IN"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11, 13, 0, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9, 15, 2, 20, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 17, 4, 18, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 19, 6, 16, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 21, 8, 14, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 23, 10, 12, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_TWIST"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_TWIST_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_TWIST_OUT"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_TWIST_IN"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">17, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_ON_HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW__AND__STOP"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STOP__AND__FLOW_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLOW_REV__AND__STOP"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STOP__AND__FLOW"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN__AND__STOP"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SIN_REV__AND__STOP"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STOP__AND__SIN"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STOP__AND__SIN_REV"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 4, 6, 8, 10, 12, 14, 16, 18, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_STROBE_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_2"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_STROBE_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_STROBE_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_3"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 4, 6, 9, 11, 13, 15, 16, 18, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3, 5, 7, 8, 10, 12, 14, 17, 19, 21, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_4"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 4, 7, 9, 11, 12, 14, 16, 19, 21, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3, 5, 6, 8, 10, 13, 15, 17, 18, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_6"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 5, 7, 8, 10, 13, 15, 16, 18, 21, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 3, 4, 6, 9, 11, 12, 14, 17, 19, 20, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"STROBE_12"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 3, 4, 7, 8, 11, 12, 15, 16, 19, 20, 23, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 5, 6, 9, 10, 13, 14, 17, 18, 21, 22, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// b_ColorSync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,6 +779,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -523,21 +1057,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A791" sqref="A1:XFD791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -599,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -610,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -621,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -632,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -643,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -654,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -665,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -676,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -687,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -698,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -709,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -722,7 +1256,7 @@
     </row>
     <row r="20" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -732,24 +1266,26 @@
       </c>
     </row>
     <row r="21" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+      <c r="E21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="3" t="s">
+    <row r="23" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -757,7 +1293,7 @@
     <row r="24" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -766,89 +1302,87 @@
     <row r="25" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="33" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
+    <row r="34" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="35" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
@@ -856,10 +1390,10 @@
     </row>
     <row r="36" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -867,21 +1401,21 @@
     </row>
     <row r="37" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -889,7 +1423,7 @@
     </row>
     <row r="39" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -900,10 +1434,10 @@
     </row>
     <row r="40" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -911,10 +1445,10 @@
     </row>
     <row r="41" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
@@ -922,10 +1456,10 @@
     </row>
     <row r="42" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -933,10 +1467,10 @@
     </row>
     <row r="43" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -944,10 +1478,10 @@
     </row>
     <row r="44" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -955,102 +1489,6629 @@
     </row>
     <row r="45" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
-        <v>9</v>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="3" t="s">
+    <row r="49" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3"/>
+    <row r="53" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="54" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>56</v>
+      </c>
+      <c r="H107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>60</v>
+      </c>
+      <c r="H111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>64</v>
+      </c>
+      <c r="H115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F121" t="s">
+        <v>164</v>
+      </c>
+      <c r="G121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>70</v>
+      </c>
+      <c r="H136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F149" t="s">
+        <v>164</v>
+      </c>
+      <c r="G149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>83</v>
+      </c>
+      <c r="H164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>84</v>
+      </c>
+      <c r="H165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>85</v>
+      </c>
+      <c r="H166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>2</v>
+      </c>
+      <c r="G167" t="s">
+        <v>86</v>
+      </c>
+      <c r="H167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>2</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>51</v>
+      </c>
+      <c r="F170" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F171" t="s">
+        <v>164</v>
+      </c>
+      <c r="G171" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F185" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" t="s">
+        <v>89</v>
+      </c>
+      <c r="H185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F186" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" t="s">
+        <v>90</v>
+      </c>
+      <c r="H186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>91</v>
+      </c>
+      <c r="H187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F188" t="s">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>92</v>
+      </c>
+      <c r="H188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F189" t="s">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>93</v>
+      </c>
+      <c r="H189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F190" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>94</v>
+      </c>
+      <c r="H190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>51</v>
+      </c>
+      <c r="F192" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F193" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D195" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G207" t="s">
+        <v>99</v>
+      </c>
+      <c r="H207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G208" t="s">
+        <v>100</v>
+      </c>
+      <c r="H208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F209" t="s">
+        <v>2</v>
+      </c>
+      <c r="G209" t="s">
+        <v>101</v>
+      </c>
+      <c r="H209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F210" t="s">
+        <v>2</v>
+      </c>
+      <c r="G210" t="s">
+        <v>102</v>
+      </c>
+      <c r="H210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F211" t="s">
+        <v>2</v>
+      </c>
+      <c r="G211" t="s">
+        <v>103</v>
+      </c>
+      <c r="H211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F212" t="s">
+        <v>2</v>
+      </c>
+      <c r="G212" t="s">
+        <v>104</v>
+      </c>
+      <c r="H212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G213" t="s">
+        <v>105</v>
+      </c>
+      <c r="H213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G214" t="s">
+        <v>106</v>
+      </c>
+      <c r="H214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F215" t="s">
+        <v>2</v>
+      </c>
+      <c r="G215" t="s">
+        <v>107</v>
+      </c>
+      <c r="H215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F216" t="s">
+        <v>2</v>
+      </c>
+      <c r="G216" t="s">
+        <v>108</v>
+      </c>
+      <c r="H216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F217" t="s">
+        <v>2</v>
+      </c>
+      <c r="G217" t="s">
+        <v>109</v>
+      </c>
+      <c r="H217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F218" t="s">
+        <v>2</v>
+      </c>
+      <c r="G218" t="s">
+        <v>110</v>
+      </c>
+      <c r="H218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E220" t="s">
+        <v>53</v>
+      </c>
+      <c r="F220" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F221" t="s">
+        <v>164</v>
+      </c>
+      <c r="G221" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F225" t="s">
+        <v>2</v>
+      </c>
+      <c r="G225" t="s">
+        <v>114</v>
+      </c>
+      <c r="H225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E227" t="s">
+        <v>113</v>
+      </c>
+      <c r="F227" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F228" t="s">
+        <v>164</v>
+      </c>
+      <c r="G228" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="3"/>
+      <c r="E231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D234" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F242" t="s">
+        <v>2</v>
+      </c>
+      <c r="G242" t="s">
+        <v>110</v>
+      </c>
+      <c r="H242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F243" t="s">
+        <v>2</v>
+      </c>
+      <c r="G243" t="s">
+        <v>109</v>
+      </c>
+      <c r="H243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F244" t="s">
+        <v>2</v>
+      </c>
+      <c r="G244" t="s">
+        <v>108</v>
+      </c>
+      <c r="H244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F245" t="s">
+        <v>2</v>
+      </c>
+      <c r="G245" t="s">
+        <v>107</v>
+      </c>
+      <c r="H245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F246" t="s">
+        <v>2</v>
+      </c>
+      <c r="G246" t="s">
+        <v>106</v>
+      </c>
+      <c r="H246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F247" t="s">
+        <v>2</v>
+      </c>
+      <c r="G247" t="s">
+        <v>105</v>
+      </c>
+      <c r="H247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F248" t="s">
+        <v>2</v>
+      </c>
+      <c r="G248" t="s">
+        <v>104</v>
+      </c>
+      <c r="H248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F249" t="s">
+        <v>2</v>
+      </c>
+      <c r="G249" t="s">
+        <v>103</v>
+      </c>
+      <c r="H249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F250" t="s">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>102</v>
+      </c>
+      <c r="H250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F251" t="s">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>101</v>
+      </c>
+      <c r="H251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F252" t="s">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>100</v>
+      </c>
+      <c r="H252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F253" t="s">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>99</v>
+      </c>
+      <c r="H253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>53</v>
+      </c>
+      <c r="F255" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F256" t="s">
+        <v>164</v>
+      </c>
+      <c r="G256" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F260" t="s">
+        <v>2</v>
+      </c>
+      <c r="G260" t="s">
+        <v>114</v>
+      </c>
+      <c r="H260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>113</v>
+      </c>
+      <c r="F262" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E263" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F263" t="s">
+        <v>164</v>
+      </c>
+      <c r="G263" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D266" s="3"/>
+      <c r="E266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D267" s="3"/>
+      <c r="E267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D268" s="3"/>
+      <c r="E268" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F277" t="s">
+        <v>2</v>
+      </c>
+      <c r="G277" t="s">
+        <v>115</v>
+      </c>
+      <c r="H277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F278" t="s">
+        <v>2</v>
+      </c>
+      <c r="G278" t="s">
+        <v>116</v>
+      </c>
+      <c r="H278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F279" t="s">
+        <v>2</v>
+      </c>
+      <c r="G279" t="s">
+        <v>117</v>
+      </c>
+      <c r="H279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F280" t="s">
+        <v>2</v>
+      </c>
+      <c r="G280" t="s">
+        <v>118</v>
+      </c>
+      <c r="H280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F281" t="s">
+        <v>2</v>
+      </c>
+      <c r="G281" t="s">
+        <v>119</v>
+      </c>
+      <c r="H281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F282" t="s">
+        <v>2</v>
+      </c>
+      <c r="G282" t="s">
+        <v>120</v>
+      </c>
+      <c r="H282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F283" t="s">
+        <v>2</v>
+      </c>
+      <c r="G283" t="s">
+        <v>121</v>
+      </c>
+      <c r="H283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F284" t="s">
+        <v>2</v>
+      </c>
+      <c r="G284" t="s">
+        <v>122</v>
+      </c>
+      <c r="H284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F285" t="s">
+        <v>2</v>
+      </c>
+      <c r="G285" t="s">
+        <v>111</v>
+      </c>
+      <c r="H285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F286" t="s">
+        <v>2</v>
+      </c>
+      <c r="G286" t="s">
+        <v>112</v>
+      </c>
+      <c r="H286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F287" t="s">
+        <v>2</v>
+      </c>
+      <c r="G287" t="s">
+        <v>123</v>
+      </c>
+      <c r="H287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F288" t="s">
+        <v>2</v>
+      </c>
+      <c r="G288" t="s">
+        <v>124</v>
+      </c>
+      <c r="H288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>53</v>
+      </c>
+      <c r="F290" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E291" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F291" t="s">
+        <v>164</v>
+      </c>
+      <c r="G291" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="292" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F295" t="s">
+        <v>2</v>
+      </c>
+      <c r="G295" t="s">
+        <v>143</v>
+      </c>
+      <c r="H295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>113</v>
+      </c>
+      <c r="F297" t="s">
+        <v>3</v>
+      </c>
+      <c r="G297" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E298" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F298" t="s">
+        <v>164</v>
+      </c>
+      <c r="G298" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="299" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D300" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D301" s="3"/>
+      <c r="E301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D302" s="3"/>
+      <c r="E302" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D303" s="3"/>
+      <c r="E303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E311" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F312" t="s">
+        <v>2</v>
+      </c>
+      <c r="G312" t="s">
+        <v>124</v>
+      </c>
+      <c r="H312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F313" t="s">
+        <v>2</v>
+      </c>
+      <c r="G313" t="s">
+        <v>123</v>
+      </c>
+      <c r="H313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F314" t="s">
+        <v>2</v>
+      </c>
+      <c r="G314" t="s">
+        <v>112</v>
+      </c>
+      <c r="H314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F315" t="s">
+        <v>2</v>
+      </c>
+      <c r="G315" t="s">
+        <v>111</v>
+      </c>
+      <c r="H315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F316" t="s">
+        <v>2</v>
+      </c>
+      <c r="G316" t="s">
+        <v>122</v>
+      </c>
+      <c r="H316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F317" t="s">
+        <v>2</v>
+      </c>
+      <c r="G317" t="s">
+        <v>121</v>
+      </c>
+      <c r="H317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F318" t="s">
+        <v>2</v>
+      </c>
+      <c r="G318" t="s">
+        <v>120</v>
+      </c>
+      <c r="H318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F319" t="s">
+        <v>2</v>
+      </c>
+      <c r="G319" t="s">
+        <v>119</v>
+      </c>
+      <c r="H319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F320" t="s">
+        <v>2</v>
+      </c>
+      <c r="G320" t="s">
+        <v>118</v>
+      </c>
+      <c r="H320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F321" t="s">
+        <v>2</v>
+      </c>
+      <c r="G321" t="s">
+        <v>117</v>
+      </c>
+      <c r="H321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F322" t="s">
+        <v>2</v>
+      </c>
+      <c r="G322" t="s">
+        <v>116</v>
+      </c>
+      <c r="H322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F323" t="s">
+        <v>2</v>
+      </c>
+      <c r="G323" t="s">
+        <v>115</v>
+      </c>
+      <c r="H323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E325" t="s">
+        <v>53</v>
+      </c>
+      <c r="F325" t="s">
+        <v>3</v>
+      </c>
+      <c r="G325" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E326" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F326" t="s">
+        <v>164</v>
+      </c>
+      <c r="G326" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="327" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F330" t="s">
+        <v>2</v>
+      </c>
+      <c r="G330" t="s">
+        <v>144</v>
+      </c>
+      <c r="H330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E332" t="s">
+        <v>113</v>
+      </c>
+      <c r="F332" t="s">
+        <v>3</v>
+      </c>
+      <c r="G332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E333" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F333" t="s">
+        <v>164</v>
+      </c>
+      <c r="G333" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="334" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D335" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D336" s="3"/>
+      <c r="E336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+    </row>
+    <row r="337" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D337" s="3"/>
+      <c r="E337" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D338" s="3"/>
+      <c r="E338" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D339" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E346" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F347" t="s">
+        <v>2</v>
+      </c>
+      <c r="G347" t="s">
+        <v>25</v>
+      </c>
+      <c r="H347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F348" t="s">
+        <v>2</v>
+      </c>
+      <c r="G348" t="s">
+        <v>26</v>
+      </c>
+      <c r="H348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F349" t="s">
+        <v>2</v>
+      </c>
+      <c r="G349" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F350" t="s">
+        <v>2</v>
+      </c>
+      <c r="G350" t="s">
+        <v>28</v>
+      </c>
+      <c r="H350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F351" t="s">
+        <v>2</v>
+      </c>
+      <c r="G351" t="s">
+        <v>29</v>
+      </c>
+      <c r="H351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F352" t="s">
+        <v>2</v>
+      </c>
+      <c r="G352" t="s">
+        <v>30</v>
+      </c>
+      <c r="H352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F353" t="s">
+        <v>2</v>
+      </c>
+      <c r="G353" t="s">
+        <v>31</v>
+      </c>
+      <c r="H353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F354" t="s">
+        <v>2</v>
+      </c>
+      <c r="G354" t="s">
+        <v>32</v>
+      </c>
+      <c r="H354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F355" t="s">
+        <v>2</v>
+      </c>
+      <c r="G355" t="s">
+        <v>33</v>
+      </c>
+      <c r="H355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F356" t="s">
+        <v>2</v>
+      </c>
+      <c r="G356" t="s">
+        <v>34</v>
+      </c>
+      <c r="H356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F357" t="s">
+        <v>2</v>
+      </c>
+      <c r="G357" t="s">
+        <v>35</v>
+      </c>
+      <c r="H357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F358" t="s">
+        <v>2</v>
+      </c>
+      <c r="G358" t="s">
+        <v>36</v>
+      </c>
+      <c r="H358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E360" t="s">
+        <v>54</v>
+      </c>
+      <c r="F360" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E361" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F361" t="s">
+        <v>164</v>
+      </c>
+      <c r="G361" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="362" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D363" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D364" s="3"/>
+      <c r="E364" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D365" s="3"/>
+      <c r="E365" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D366" s="3"/>
+      <c r="E366" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D367" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C368" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C371">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="D371" t="s">
+        <v>4</v>
+      </c>
+      <c r="E371" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D373" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E374" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F375" t="s">
+        <v>2</v>
+      </c>
+      <c r="G375" t="s">
+        <v>36</v>
+      </c>
+      <c r="H375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F376" t="s">
+        <v>2</v>
+      </c>
+      <c r="G376" t="s">
+        <v>35</v>
+      </c>
+      <c r="H376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F377" t="s">
+        <v>2</v>
+      </c>
+      <c r="G377" t="s">
+        <v>34</v>
+      </c>
+      <c r="H377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F378" t="s">
+        <v>2</v>
+      </c>
+      <c r="G378" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F379" t="s">
+        <v>2</v>
+      </c>
+      <c r="G379" t="s">
+        <v>32</v>
+      </c>
+      <c r="H379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F380" t="s">
+        <v>2</v>
+      </c>
+      <c r="G380" t="s">
+        <v>31</v>
+      </c>
+      <c r="H380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F381" t="s">
+        <v>2</v>
+      </c>
+      <c r="G381" t="s">
+        <v>30</v>
+      </c>
+      <c r="H381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F382" t="s">
+        <v>2</v>
+      </c>
+      <c r="G382" t="s">
+        <v>29</v>
+      </c>
+      <c r="H382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F383" t="s">
+        <v>2</v>
+      </c>
+      <c r="G383" t="s">
+        <v>28</v>
+      </c>
+      <c r="H383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F384" t="s">
+        <v>2</v>
+      </c>
+      <c r="G384" t="s">
+        <v>27</v>
+      </c>
+      <c r="H384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F385" t="s">
+        <v>2</v>
+      </c>
+      <c r="G385" t="s">
+        <v>26</v>
+      </c>
+      <c r="H385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F386" t="s">
+        <v>2</v>
+      </c>
+      <c r="G386" t="s">
+        <v>25</v>
+      </c>
+      <c r="H386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E388" t="s">
+        <v>54</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E389" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F389" t="s">
+        <v>164</v>
+      </c>
+      <c r="G389" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D391" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D392" s="3"/>
+      <c r="E392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F392" s="3"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D393" s="3"/>
+      <c r="E393" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393" s="3"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D394" s="3"/>
+      <c r="E394" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D395" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
+        <v>2</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>3</v>
+      </c>
+      <c r="E399" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D401" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E402" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F403" t="s">
+        <v>2</v>
+      </c>
+      <c r="G403" t="s">
+        <v>43</v>
+      </c>
+      <c r="H403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F404" t="s">
+        <v>2</v>
+      </c>
+      <c r="G404" t="s">
+        <v>44</v>
+      </c>
+      <c r="H404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F405" t="s">
+        <v>2</v>
+      </c>
+      <c r="G405" t="s">
+        <v>45</v>
+      </c>
+      <c r="H405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F406" t="s">
+        <v>2</v>
+      </c>
+      <c r="G406" t="s">
+        <v>46</v>
+      </c>
+      <c r="H406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F407" t="s">
+        <v>2</v>
+      </c>
+      <c r="G407" t="s">
+        <v>47</v>
+      </c>
+      <c r="H407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F408" t="s">
+        <v>2</v>
+      </c>
+      <c r="G408" t="s">
+        <v>48</v>
+      </c>
+      <c r="H408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E409" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E410" t="s">
+        <v>42</v>
+      </c>
+      <c r="F410" t="s">
+        <v>3</v>
+      </c>
+      <c r="G410" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E411" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F411" t="s">
+        <v>164</v>
+      </c>
+      <c r="G411" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="412" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D413" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D414" s="3"/>
+      <c r="E414" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D415" s="3"/>
+      <c r="E415" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415" s="3"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D416" s="3"/>
+      <c r="E416" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D417" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="3"/>
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>2</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C422" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D423" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E424" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F425" t="s">
+        <v>2</v>
+      </c>
+      <c r="G425" t="s">
+        <v>48</v>
+      </c>
+      <c r="H425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F426" t="s">
+        <v>2</v>
+      </c>
+      <c r="G426" t="s">
+        <v>47</v>
+      </c>
+      <c r="H426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F427" t="s">
+        <v>2</v>
+      </c>
+      <c r="G427" t="s">
+        <v>46</v>
+      </c>
+      <c r="H427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F428" t="s">
+        <v>2</v>
+      </c>
+      <c r="G428" t="s">
+        <v>45</v>
+      </c>
+      <c r="H428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F429" t="s">
+        <v>2</v>
+      </c>
+      <c r="G429" t="s">
+        <v>44</v>
+      </c>
+      <c r="H429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F430" t="s">
+        <v>2</v>
+      </c>
+      <c r="G430" t="s">
+        <v>43</v>
+      </c>
+      <c r="H430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E431" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E432" t="s">
+        <v>42</v>
+      </c>
+      <c r="F432" t="s">
+        <v>3</v>
+      </c>
+      <c r="G432" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E433" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F433" t="s">
+        <v>164</v>
+      </c>
+      <c r="G433" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="434" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D435" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3"/>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D436" s="3"/>
+      <c r="E436" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F436" s="3"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D437" s="3"/>
+      <c r="E437" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F437" s="3"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D438" s="3"/>
+      <c r="E438" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D439" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>2</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="444" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D445" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E446" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F447" t="s">
+        <v>2</v>
+      </c>
+      <c r="G447" t="s">
+        <v>56</v>
+      </c>
+      <c r="H447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F448" t="s">
+        <v>2</v>
+      </c>
+      <c r="G448" t="s">
+        <v>57</v>
+      </c>
+      <c r="H448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F449" t="s">
+        <v>2</v>
+      </c>
+      <c r="G449" t="s">
+        <v>58</v>
+      </c>
+      <c r="H449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F450" t="s">
+        <v>2</v>
+      </c>
+      <c r="G450" t="s">
+        <v>59</v>
+      </c>
+      <c r="H450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F451" t="s">
+        <v>2</v>
+      </c>
+      <c r="G451" t="s">
+        <v>60</v>
+      </c>
+      <c r="H451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F452" t="s">
+        <v>2</v>
+      </c>
+      <c r="G452" t="s">
+        <v>61</v>
+      </c>
+      <c r="H452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F453" t="s">
+        <v>2</v>
+      </c>
+      <c r="G453" t="s">
+        <v>62</v>
+      </c>
+      <c r="H453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F454" t="s">
+        <v>2</v>
+      </c>
+      <c r="G454" t="s">
+        <v>63</v>
+      </c>
+      <c r="H454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F455" t="s">
+        <v>2</v>
+      </c>
+      <c r="G455" t="s">
+        <v>64</v>
+      </c>
+      <c r="H455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F456" t="s">
+        <v>2</v>
+      </c>
+      <c r="G456" t="s">
+        <v>65</v>
+      </c>
+      <c r="H456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F457" t="s">
+        <v>2</v>
+      </c>
+      <c r="G457" t="s">
+        <v>66</v>
+      </c>
+      <c r="H457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F458" t="s">
+        <v>2</v>
+      </c>
+      <c r="G458" t="s">
+        <v>67</v>
+      </c>
+      <c r="H458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E460" t="s">
+        <v>54</v>
+      </c>
+      <c r="F460" t="s">
+        <v>3</v>
+      </c>
+      <c r="G460" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E461" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F461" t="s">
+        <v>164</v>
+      </c>
+      <c r="G461" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="462" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D463" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E463" s="3"/>
+      <c r="F463" s="3"/>
+      <c r="G463" s="3"/>
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D464" s="3"/>
+      <c r="E464" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F464" s="3"/>
+      <c r="G464" s="3"/>
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D465" s="3"/>
+      <c r="E465" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F465" s="3"/>
+      <c r="G465" s="3"/>
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D466" s="3"/>
+      <c r="E466" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D467" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E467" s="3"/>
+      <c r="F467" s="3"/>
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
+        <v>2</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3</v>
+      </c>
+      <c r="E471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C472" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D473" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E474" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F475" t="s">
+        <v>2</v>
+      </c>
+      <c r="G475" t="s">
+        <v>69</v>
+      </c>
+      <c r="H475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F476" t="s">
+        <v>2</v>
+      </c>
+      <c r="G476" t="s">
+        <v>70</v>
+      </c>
+      <c r="H476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F477" t="s">
+        <v>2</v>
+      </c>
+      <c r="G477" t="s">
+        <v>71</v>
+      </c>
+      <c r="H477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F478" t="s">
+        <v>2</v>
+      </c>
+      <c r="G478" t="s">
+        <v>72</v>
+      </c>
+      <c r="H478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F479" t="s">
+        <v>2</v>
+      </c>
+      <c r="G479" t="s">
+        <v>73</v>
+      </c>
+      <c r="H479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F480" t="s">
+        <v>2</v>
+      </c>
+      <c r="G480" t="s">
+        <v>74</v>
+      </c>
+      <c r="H480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F481" t="s">
+        <v>2</v>
+      </c>
+      <c r="G481" t="s">
+        <v>75</v>
+      </c>
+      <c r="H481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F482" t="s">
+        <v>2</v>
+      </c>
+      <c r="G482" t="s">
+        <v>76</v>
+      </c>
+      <c r="H482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F483" t="s">
+        <v>2</v>
+      </c>
+      <c r="G483" t="s">
+        <v>77</v>
+      </c>
+      <c r="H483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F484" t="s">
+        <v>2</v>
+      </c>
+      <c r="G484" t="s">
+        <v>78</v>
+      </c>
+      <c r="H484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F485" t="s">
+        <v>2</v>
+      </c>
+      <c r="G485" t="s">
+        <v>79</v>
+      </c>
+      <c r="H485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F486" t="s">
+        <v>2</v>
+      </c>
+      <c r="G486" t="s">
+        <v>80</v>
+      </c>
+      <c r="H486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E488" t="s">
+        <v>54</v>
+      </c>
+      <c r="F488" t="s">
+        <v>3</v>
+      </c>
+      <c r="G488" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="489" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E489" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F489" t="s">
+        <v>164</v>
+      </c>
+      <c r="G489" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="490" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D491" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E491" s="3"/>
+      <c r="F491" s="3"/>
+      <c r="G491" s="3"/>
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D492" s="3"/>
+      <c r="E492" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F492" s="3"/>
+      <c r="G492" s="3"/>
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D493" s="3"/>
+      <c r="E493" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F493" s="3"/>
+      <c r="G493" s="3"/>
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D494" s="3"/>
+      <c r="E494" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D495" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E495" s="3"/>
+      <c r="F495" s="3"/>
+      <c r="G495" s="3"/>
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
+        <v>2</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>3</v>
+      </c>
+      <c r="E499" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="500" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C500" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D501" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E502" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F503" t="s">
+        <v>2</v>
+      </c>
+      <c r="G503" t="s">
+        <v>82</v>
+      </c>
+      <c r="H503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F504" t="s">
+        <v>2</v>
+      </c>
+      <c r="G504" t="s">
+        <v>83</v>
+      </c>
+      <c r="H504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F505" t="s">
+        <v>2</v>
+      </c>
+      <c r="G505" t="s">
+        <v>84</v>
+      </c>
+      <c r="H505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F506" t="s">
+        <v>2</v>
+      </c>
+      <c r="G506" t="s">
+        <v>85</v>
+      </c>
+      <c r="H506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F507" t="s">
+        <v>2</v>
+      </c>
+      <c r="G507" t="s">
+        <v>86</v>
+      </c>
+      <c r="H507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F508" t="s">
+        <v>2</v>
+      </c>
+      <c r="G508" t="s">
+        <v>87</v>
+      </c>
+      <c r="H508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E510" t="s">
+        <v>42</v>
+      </c>
+      <c r="F510" t="s">
+        <v>3</v>
+      </c>
+      <c r="G510" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="511" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E511" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F511" t="s">
+        <v>164</v>
+      </c>
+      <c r="G511" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="512" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D513" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E513" s="3"/>
+      <c r="F513" s="3"/>
+      <c r="G513" s="3"/>
+      <c r="H513" s="3"/>
+    </row>
+    <row r="514" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D514" s="3"/>
+      <c r="E514" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F514" s="3"/>
+      <c r="G514" s="3"/>
+      <c r="H514" s="3"/>
+    </row>
+    <row r="515" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D515" s="3"/>
+      <c r="E515" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F515" s="3"/>
+      <c r="G515" s="3"/>
+      <c r="H515" s="3"/>
+    </row>
+    <row r="516" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D516" s="3"/>
+      <c r="E516" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H516" s="3"/>
+    </row>
+    <row r="517" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D517" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E517" s="3"/>
+      <c r="F517" s="3"/>
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+    </row>
+    <row r="518" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B520" t="s">
+        <v>2</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C522" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D523" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E524" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F525" t="s">
+        <v>2</v>
+      </c>
+      <c r="G525" t="s">
+        <v>89</v>
+      </c>
+      <c r="H525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F526" t="s">
+        <v>2</v>
+      </c>
+      <c r="G526" t="s">
+        <v>90</v>
+      </c>
+      <c r="H526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F527" t="s">
+        <v>2</v>
+      </c>
+      <c r="G527" t="s">
+        <v>91</v>
+      </c>
+      <c r="H527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F528" t="s">
+        <v>2</v>
+      </c>
+      <c r="G528" t="s">
+        <v>92</v>
+      </c>
+      <c r="H528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F529" t="s">
+        <v>2</v>
+      </c>
+      <c r="G529" t="s">
+        <v>93</v>
+      </c>
+      <c r="H529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F530" t="s">
+        <v>2</v>
+      </c>
+      <c r="G530" t="s">
+        <v>94</v>
+      </c>
+      <c r="H530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E532" t="s">
+        <v>42</v>
+      </c>
+      <c r="F532" t="s">
+        <v>3</v>
+      </c>
+      <c r="G532" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E533" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F533" t="s">
+        <v>164</v>
+      </c>
+      <c r="G533" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D535" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E535" s="3"/>
+      <c r="F535" s="3"/>
+      <c r="G535" s="3"/>
+      <c r="H535" s="3"/>
+    </row>
+    <row r="536" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D536" s="3"/>
+      <c r="E536" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F536" s="3"/>
+      <c r="G536" s="3"/>
+      <c r="H536" s="3"/>
+    </row>
+    <row r="537" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D537" s="3"/>
+      <c r="E537" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F537" s="3"/>
+      <c r="G537" s="3"/>
+      <c r="H537" s="3"/>
+    </row>
+    <row r="538" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D538" s="3"/>
+      <c r="E538" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H538" s="3"/>
+    </row>
+    <row r="539" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D539" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E539" s="3"/>
+      <c r="F539" s="3"/>
+      <c r="G539" s="3"/>
+      <c r="H539" s="3"/>
+    </row>
+    <row r="540" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B542" t="s">
+        <v>2</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D542" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" t="s">
+        <v>3</v>
+      </c>
+      <c r="E543" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="544" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C544" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D545" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E546" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F547" t="s">
+        <v>2</v>
+      </c>
+      <c r="G547" t="s">
+        <v>127</v>
+      </c>
+      <c r="H547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F548" t="s">
+        <v>2</v>
+      </c>
+      <c r="G548" t="s">
+        <v>128</v>
+      </c>
+      <c r="H548" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F549" t="s">
+        <v>2</v>
+      </c>
+      <c r="G549" t="s">
+        <v>129</v>
+      </c>
+      <c r="H549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F550" t="s">
+        <v>2</v>
+      </c>
+      <c r="G550" t="s">
+        <v>130</v>
+      </c>
+      <c r="H550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F551" t="s">
+        <v>2</v>
+      </c>
+      <c r="G551" t="s">
+        <v>131</v>
+      </c>
+      <c r="H551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F552" t="s">
+        <v>2</v>
+      </c>
+      <c r="G552" t="s">
+        <v>132</v>
+      </c>
+      <c r="H552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F553" t="s">
+        <v>2</v>
+      </c>
+      <c r="G553" t="s">
+        <v>133</v>
+      </c>
+      <c r="H553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F554" t="s">
+        <v>2</v>
+      </c>
+      <c r="G554" t="s">
+        <v>134</v>
+      </c>
+      <c r="H554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F555" t="s">
+        <v>2</v>
+      </c>
+      <c r="G555" t="s">
+        <v>107</v>
+      </c>
+      <c r="H555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F556" t="s">
+        <v>2</v>
+      </c>
+      <c r="G556" t="s">
+        <v>135</v>
+      </c>
+      <c r="H556" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F557" t="s">
+        <v>2</v>
+      </c>
+      <c r="G557" t="s">
+        <v>136</v>
+      </c>
+      <c r="H557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F558" t="s">
+        <v>2</v>
+      </c>
+      <c r="G558" t="s">
+        <v>110</v>
+      </c>
+      <c r="H558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E560" t="s">
+        <v>54</v>
+      </c>
+      <c r="F560" t="s">
+        <v>3</v>
+      </c>
+      <c r="G560" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E561" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F561" t="s">
+        <v>164</v>
+      </c>
+      <c r="G561" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D563" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E564" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F565" t="s">
+        <v>2</v>
+      </c>
+      <c r="G565" t="s">
+        <v>114</v>
+      </c>
+      <c r="H565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E567" t="s">
+        <v>113</v>
+      </c>
+      <c r="F567" t="s">
+        <v>3</v>
+      </c>
+      <c r="G567" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E568" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F568" t="s">
+        <v>164</v>
+      </c>
+      <c r="G568" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D570" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E570" s="3"/>
+      <c r="F570" s="3"/>
+      <c r="G570" s="3"/>
+      <c r="H570" s="3"/>
+    </row>
+    <row r="571" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D571" s="3"/>
+      <c r="E571" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571" s="3"/>
+      <c r="G571" s="3"/>
+      <c r="H571" s="3"/>
+    </row>
+    <row r="572" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D572" s="3"/>
+      <c r="E572" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F572" s="3"/>
+      <c r="G572" s="3"/>
+      <c r="H572" s="3"/>
+    </row>
+    <row r="573" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D573" s="3"/>
+      <c r="E573" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H573" s="3"/>
+    </row>
+    <row r="574" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D574" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E574" s="3"/>
+      <c r="F574" s="3"/>
+      <c r="G574" s="3"/>
+      <c r="H574" s="3"/>
+    </row>
+    <row r="575" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B577" t="s">
+        <v>2</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D577" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="s">
+        <v>3</v>
+      </c>
+      <c r="E578" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C579" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E581" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F582" t="s">
+        <v>2</v>
+      </c>
+      <c r="G582" t="s">
+        <v>110</v>
+      </c>
+      <c r="H582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F583" t="s">
+        <v>2</v>
+      </c>
+      <c r="G583" t="s">
+        <v>109</v>
+      </c>
+      <c r="H583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F584" t="s">
+        <v>2</v>
+      </c>
+      <c r="G584" t="s">
+        <v>108</v>
+      </c>
+      <c r="H584" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F585" t="s">
+        <v>2</v>
+      </c>
+      <c r="G585" t="s">
+        <v>107</v>
+      </c>
+      <c r="H585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F586" t="s">
+        <v>2</v>
+      </c>
+      <c r="G586" t="s">
+        <v>106</v>
+      </c>
+      <c r="H586" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F587" t="s">
+        <v>2</v>
+      </c>
+      <c r="G587" t="s">
+        <v>105</v>
+      </c>
+      <c r="H587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F588" t="s">
+        <v>2</v>
+      </c>
+      <c r="G588" t="s">
+        <v>104</v>
+      </c>
+      <c r="H588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F589" t="s">
+        <v>2</v>
+      </c>
+      <c r="G589" t="s">
+        <v>103</v>
+      </c>
+      <c r="H589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F590" t="s">
+        <v>2</v>
+      </c>
+      <c r="G590" t="s">
+        <v>102</v>
+      </c>
+      <c r="H590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F591" t="s">
+        <v>2</v>
+      </c>
+      <c r="G591" t="s">
+        <v>101</v>
+      </c>
+      <c r="H591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F592" t="s">
+        <v>2</v>
+      </c>
+      <c r="G592" t="s">
+        <v>100</v>
+      </c>
+      <c r="H592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F593" t="s">
+        <v>2</v>
+      </c>
+      <c r="G593" t="s">
+        <v>99</v>
+      </c>
+      <c r="H593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E595" t="s">
+        <v>54</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3</v>
+      </c>
+      <c r="G595" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="596" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E596" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F596" t="s">
+        <v>164</v>
+      </c>
+      <c r="G596" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="597" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D598" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E599" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F600" t="s">
+        <v>2</v>
+      </c>
+      <c r="G600" t="s">
+        <v>114</v>
+      </c>
+      <c r="H600" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E602" t="s">
+        <v>113</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3</v>
+      </c>
+      <c r="G602" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="603" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E603" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F603" t="s">
+        <v>164</v>
+      </c>
+      <c r="G603" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="604" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D604" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D605" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E605" s="3"/>
+      <c r="F605" s="3"/>
+      <c r="G605" s="3"/>
+      <c r="H605" s="3"/>
+    </row>
+    <row r="606" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D606" s="3"/>
+      <c r="E606" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F606" s="3"/>
+      <c r="G606" s="3"/>
+      <c r="H606" s="3"/>
+    </row>
+    <row r="607" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D607" s="3"/>
+      <c r="E607" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F607" s="3"/>
+      <c r="G607" s="3"/>
+      <c r="H607" s="3"/>
+    </row>
+    <row r="608" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D608" s="3"/>
+      <c r="E608" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H608" s="3"/>
+    </row>
+    <row r="609" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D609" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E609" s="3"/>
+      <c r="F609" s="3"/>
+      <c r="G609" s="3"/>
+      <c r="H609" s="3"/>
+    </row>
+    <row r="610" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C610" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B612" t="s">
+        <v>2</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D612" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613" t="s">
+        <v>3</v>
+      </c>
+      <c r="E613" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="614" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C614" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E616" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F617" t="s">
+        <v>2</v>
+      </c>
+      <c r="G617" t="s">
+        <v>115</v>
+      </c>
+      <c r="H617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F618" t="s">
+        <v>2</v>
+      </c>
+      <c r="G618" t="s">
+        <v>116</v>
+      </c>
+      <c r="H618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F619" t="s">
+        <v>2</v>
+      </c>
+      <c r="G619" t="s">
+        <v>117</v>
+      </c>
+      <c r="H619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F620" t="s">
+        <v>2</v>
+      </c>
+      <c r="G620" t="s">
+        <v>118</v>
+      </c>
+      <c r="H620" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F621" t="s">
+        <v>2</v>
+      </c>
+      <c r="G621" t="s">
+        <v>119</v>
+      </c>
+      <c r="H621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F622" t="s">
+        <v>2</v>
+      </c>
+      <c r="G622" t="s">
+        <v>120</v>
+      </c>
+      <c r="H622" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F623" t="s">
+        <v>2</v>
+      </c>
+      <c r="G623" t="s">
+        <v>121</v>
+      </c>
+      <c r="H623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F624" t="s">
+        <v>2</v>
+      </c>
+      <c r="G624" t="s">
+        <v>122</v>
+      </c>
+      <c r="H624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F625" t="s">
+        <v>2</v>
+      </c>
+      <c r="G625" t="s">
+        <v>111</v>
+      </c>
+      <c r="H625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F626" t="s">
+        <v>2</v>
+      </c>
+      <c r="G626" t="s">
+        <v>112</v>
+      </c>
+      <c r="H626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F627" t="s">
+        <v>2</v>
+      </c>
+      <c r="G627" t="s">
+        <v>123</v>
+      </c>
+      <c r="H627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F628" t="s">
+        <v>2</v>
+      </c>
+      <c r="G628" t="s">
+        <v>124</v>
+      </c>
+      <c r="H628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E630" t="s">
+        <v>54</v>
+      </c>
+      <c r="F630" t="s">
+        <v>3</v>
+      </c>
+      <c r="G630" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="631" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E631" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F631" t="s">
+        <v>164</v>
+      </c>
+      <c r="G631" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="632" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E634" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F635" t="s">
+        <v>2</v>
+      </c>
+      <c r="G635" t="s">
+        <v>145</v>
+      </c>
+      <c r="H635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E636" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E637" t="s">
+        <v>113</v>
+      </c>
+      <c r="F637" t="s">
+        <v>3</v>
+      </c>
+      <c r="G637" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="638" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E638" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F638" t="s">
+        <v>164</v>
+      </c>
+      <c r="G638" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="639" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D639" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D640" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E640" s="3"/>
+      <c r="F640" s="3"/>
+      <c r="G640" s="3"/>
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D641" s="3"/>
+      <c r="E641" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F641" s="3"/>
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D642" s="3"/>
+      <c r="E642" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F642" s="3"/>
+      <c r="G642" s="3"/>
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D643" s="3"/>
+      <c r="E643" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D644" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E644" s="3"/>
+      <c r="F644" s="3"/>
+      <c r="G644" s="3"/>
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C645" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B646" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B647" t="s">
+        <v>2</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D647" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648" t="s">
+        <v>3</v>
+      </c>
+      <c r="E648" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="649" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C649" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="650" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E651" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="652" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F652" t="s">
+        <v>2</v>
+      </c>
+      <c r="G652" t="s">
+        <v>124</v>
+      </c>
+      <c r="H652" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F653" t="s">
+        <v>2</v>
+      </c>
+      <c r="G653" t="s">
+        <v>123</v>
+      </c>
+      <c r="H653" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F654" t="s">
+        <v>2</v>
+      </c>
+      <c r="G654" t="s">
+        <v>112</v>
+      </c>
+      <c r="H654" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F655" t="s">
+        <v>2</v>
+      </c>
+      <c r="G655" t="s">
+        <v>111</v>
+      </c>
+      <c r="H655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F656" t="s">
+        <v>2</v>
+      </c>
+      <c r="G656" t="s">
+        <v>122</v>
+      </c>
+      <c r="H656" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F657" t="s">
+        <v>2</v>
+      </c>
+      <c r="G657" t="s">
+        <v>121</v>
+      </c>
+      <c r="H657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F658" t="s">
+        <v>2</v>
+      </c>
+      <c r="G658" t="s">
+        <v>120</v>
+      </c>
+      <c r="H658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F659" t="s">
+        <v>2</v>
+      </c>
+      <c r="G659" t="s">
+        <v>119</v>
+      </c>
+      <c r="H659" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F660" t="s">
+        <v>2</v>
+      </c>
+      <c r="G660" t="s">
+        <v>118</v>
+      </c>
+      <c r="H660" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F661" t="s">
+        <v>2</v>
+      </c>
+      <c r="G661" t="s">
+        <v>117</v>
+      </c>
+      <c r="H661" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F662" t="s">
+        <v>2</v>
+      </c>
+      <c r="G662" t="s">
+        <v>116</v>
+      </c>
+      <c r="H662" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F663" t="s">
+        <v>2</v>
+      </c>
+      <c r="G663" t="s">
+        <v>115</v>
+      </c>
+      <c r="H663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E664" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E665" t="s">
+        <v>54</v>
+      </c>
+      <c r="F665" t="s">
+        <v>3</v>
+      </c>
+      <c r="G665" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="666" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E666" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F666" t="s">
+        <v>164</v>
+      </c>
+      <c r="G666" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="667" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D668" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="669" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E669" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="670" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F670" t="s">
+        <v>2</v>
+      </c>
+      <c r="G670" t="s">
+        <v>144</v>
+      </c>
+      <c r="H670" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E672" t="s">
+        <v>113</v>
+      </c>
+      <c r="F672" t="s">
+        <v>3</v>
+      </c>
+      <c r="G672" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="673" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E673" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F673" t="s">
+        <v>164</v>
+      </c>
+      <c r="G673" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="674" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D674" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D675" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E675" s="3"/>
+      <c r="F675" s="3"/>
+      <c r="G675" s="3"/>
+      <c r="H675" s="3"/>
+    </row>
+    <row r="676" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D676" s="3"/>
+      <c r="E676" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F676" s="3"/>
+      <c r="G676" s="3"/>
+      <c r="H676" s="3"/>
+    </row>
+    <row r="677" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D677" s="3"/>
+      <c r="E677" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F677" s="3"/>
+      <c r="G677" s="3"/>
+      <c r="H677" s="3"/>
+    </row>
+    <row r="678" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D678" s="3"/>
+      <c r="E678" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H678" s="3"/>
+    </row>
+    <row r="679" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D679" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E679" s="3"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
+    </row>
+    <row r="680" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C680" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B682" t="s">
+        <v>2</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D682" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683" t="s">
+        <v>3</v>
+      </c>
+      <c r="E683" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="684" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C684" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="685" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D685" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="686" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E686" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="687" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F687" t="s">
+        <v>2</v>
+      </c>
+      <c r="G687" t="s">
+        <v>146</v>
+      </c>
+      <c r="H687" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E688" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E689" t="s">
+        <v>147</v>
+      </c>
+      <c r="F689" t="s">
+        <v>3</v>
+      </c>
+      <c r="G689" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="690" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E690" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F690" t="s">
+        <v>164</v>
+      </c>
+      <c r="G690" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="691" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D692" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E692" s="3"/>
+      <c r="F692" s="3"/>
+      <c r="G692" s="3"/>
+      <c r="H692" s="3"/>
+    </row>
+    <row r="693" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D693" s="3"/>
+      <c r="E693" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693" s="3"/>
+      <c r="G693" s="3"/>
+      <c r="H693" s="3"/>
+    </row>
+    <row r="694" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D694" s="3"/>
+      <c r="E694" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F694" s="3"/>
+      <c r="G694" s="3"/>
+      <c r="H694" s="3"/>
+    </row>
+    <row r="695" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D695" s="3"/>
+      <c r="E695" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H695" s="3"/>
+    </row>
+    <row r="696" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D696" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E696" s="3"/>
+      <c r="F696" s="3"/>
+      <c r="G696" s="3"/>
+      <c r="H696" s="3"/>
+    </row>
+    <row r="697" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B698" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B699" t="s">
+        <v>2</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D699" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700" t="s">
+        <v>3</v>
+      </c>
+      <c r="E700" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="701" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C701" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="702" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D702" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="703" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E703" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="704" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F704" t="s">
+        <v>2</v>
+      </c>
+      <c r="G704" t="s">
+        <v>37</v>
+      </c>
+      <c r="H704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F705" t="s">
+        <v>2</v>
+      </c>
+      <c r="G705" t="s">
+        <v>38</v>
+      </c>
+      <c r="H705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E706" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E707" t="s">
+        <v>150</v>
+      </c>
+      <c r="F707" t="s">
+        <v>3</v>
+      </c>
+      <c r="G707" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="708" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E708" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F708" t="s">
+        <v>164</v>
+      </c>
+      <c r="G708" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="709" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D709" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D710" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E710" s="3"/>
+      <c r="F710" s="3"/>
+      <c r="G710" s="3"/>
+      <c r="H710" s="3"/>
+    </row>
+    <row r="711" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D711" s="3"/>
+      <c r="E711" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F711" s="3"/>
+      <c r="G711" s="3"/>
+      <c r="H711" s="3"/>
+    </row>
+    <row r="712" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D712" s="3"/>
+      <c r="E712" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F712" s="3"/>
+      <c r="G712" s="3"/>
+      <c r="H712" s="3"/>
+    </row>
+    <row r="713" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D713" s="3"/>
+      <c r="E713" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H713" s="3"/>
+    </row>
+    <row r="714" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D714" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E714" s="3"/>
+      <c r="F714" s="3"/>
+      <c r="G714" s="3"/>
+      <c r="H714" s="3"/>
+    </row>
+    <row r="715" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B716" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B717" t="s">
+        <v>2</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D717" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718" t="s">
+        <v>3</v>
+      </c>
+      <c r="E718" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="719" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C719" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="720" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D720" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="721" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E721" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="722" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F722" t="s">
+        <v>2</v>
+      </c>
+      <c r="G722" t="s">
+        <v>153</v>
+      </c>
+      <c r="H722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F723" t="s">
+        <v>2</v>
+      </c>
+      <c r="G723" t="s">
+        <v>154</v>
+      </c>
+      <c r="H723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E724" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E725" t="s">
+        <v>151</v>
+      </c>
+      <c r="F725" t="s">
+        <v>3</v>
+      </c>
+      <c r="G725" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E726" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F726" t="s">
+        <v>164</v>
+      </c>
+      <c r="G726" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="727" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D728" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E728" s="3"/>
+      <c r="F728" s="3"/>
+      <c r="G728" s="3"/>
+      <c r="H728" s="3"/>
+    </row>
+    <row r="729" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D729" s="3"/>
+      <c r="E729" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F729" s="3"/>
+      <c r="G729" s="3"/>
+      <c r="H729" s="3"/>
+    </row>
+    <row r="730" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D730" s="3"/>
+      <c r="E730" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F730" s="3"/>
+      <c r="G730" s="3"/>
+      <c r="H730" s="3"/>
+    </row>
+    <row r="731" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D731" s="3"/>
+      <c r="E731" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H731" s="3"/>
+    </row>
+    <row r="732" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D732" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E732" s="3"/>
+      <c r="F732" s="3"/>
+      <c r="G732" s="3"/>
+      <c r="H732" s="3"/>
+    </row>
+    <row r="733" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B734" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B735" t="s">
+        <v>2</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D735" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C736">
+        <v>1</v>
+      </c>
+      <c r="D736" t="s">
+        <v>3</v>
+      </c>
+      <c r="E736" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="737" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C737" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="738" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D738" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="739" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E739" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="740" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F740" t="s">
+        <v>2</v>
+      </c>
+      <c r="G740" t="s">
+        <v>156</v>
+      </c>
+      <c r="H740" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F741" t="s">
+        <v>2</v>
+      </c>
+      <c r="G741" t="s">
+        <v>157</v>
+      </c>
+      <c r="H741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E743" t="s">
+        <v>151</v>
+      </c>
+      <c r="F743" t="s">
+        <v>3</v>
+      </c>
+      <c r="G743" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="744" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E744" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F744" t="s">
+        <v>164</v>
+      </c>
+      <c r="G744" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="745" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D746" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E746" s="3"/>
+      <c r="F746" s="3"/>
+      <c r="G746" s="3"/>
+      <c r="H746" s="3"/>
+    </row>
+    <row r="747" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D747" s="3"/>
+      <c r="E747" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F747" s="3"/>
+      <c r="G747" s="3"/>
+      <c r="H747" s="3"/>
+    </row>
+    <row r="748" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D748" s="3"/>
+      <c r="E748" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F748" s="3"/>
+      <c r="G748" s="3"/>
+      <c r="H748" s="3"/>
+    </row>
+    <row r="749" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D749" s="3"/>
+      <c r="E749" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H749" s="3"/>
+    </row>
+    <row r="750" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D750" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E750" s="3"/>
+      <c r="F750" s="3"/>
+      <c r="G750" s="3"/>
+      <c r="H750" s="3"/>
+    </row>
+    <row r="751" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C751" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B752" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B753" t="s">
+        <v>2</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D753" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C754">
+        <v>1</v>
+      </c>
+      <c r="D754" t="s">
+        <v>3</v>
+      </c>
+      <c r="E754" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="755" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C755" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D756" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="757" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E757" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="758" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F758" t="s">
+        <v>2</v>
+      </c>
+      <c r="G758" t="s">
+        <v>159</v>
+      </c>
+      <c r="H758" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F759" t="s">
+        <v>2</v>
+      </c>
+      <c r="G759" t="s">
+        <v>160</v>
+      </c>
+      <c r="H759" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E760" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E761" t="s">
+        <v>151</v>
+      </c>
+      <c r="F761" t="s">
+        <v>3</v>
+      </c>
+      <c r="G761" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="762" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E762" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F762" t="s">
+        <v>164</v>
+      </c>
+      <c r="G762" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="763" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D763" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D764" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E764" s="3"/>
+      <c r="F764" s="3"/>
+      <c r="G764" s="3"/>
+      <c r="H764" s="3"/>
+    </row>
+    <row r="765" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D765" s="3"/>
+      <c r="E765" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F765" s="3"/>
+      <c r="G765" s="3"/>
+      <c r="H765" s="3"/>
+    </row>
+    <row r="766" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D766" s="3"/>
+      <c r="E766" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F766" s="3"/>
+      <c r="G766" s="3"/>
+      <c r="H766" s="3"/>
+    </row>
+    <row r="767" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D767" s="3"/>
+      <c r="E767" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H767" s="3"/>
+    </row>
+    <row r="768" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D768" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E768" s="3"/>
+      <c r="F768" s="3"/>
+      <c r="G768" s="3"/>
+      <c r="H768" s="3"/>
+    </row>
+    <row r="769" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C769" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B770" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B771" t="s">
+        <v>2</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D771" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C772">
+        <v>1</v>
+      </c>
+      <c r="D772" t="s">
+        <v>3</v>
+      </c>
+      <c r="E772" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="773" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C773" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="774" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D774" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="775" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E775" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="776" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F776" t="s">
+        <v>2</v>
+      </c>
+      <c r="G776" t="s">
+        <v>162</v>
+      </c>
+      <c r="H776" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F777" t="s">
+        <v>2</v>
+      </c>
+      <c r="G777" t="s">
+        <v>163</v>
+      </c>
+      <c r="H777" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E778" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E779" t="s">
+        <v>151</v>
+      </c>
+      <c r="F779" t="s">
+        <v>3</v>
+      </c>
+      <c r="G779" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="780" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E780" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F780" t="s">
+        <v>164</v>
+      </c>
+      <c r="G780" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="781" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D781" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D782" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E782" s="3"/>
+      <c r="F782" s="3"/>
+      <c r="G782" s="3"/>
+      <c r="H782" s="3"/>
+    </row>
+    <row r="783" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D783" s="3"/>
+      <c r="E783" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F783" s="3"/>
+      <c r="G783" s="3"/>
+      <c r="H783" s="3"/>
+    </row>
+    <row r="784" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D784" s="3"/>
+      <c r="E784" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F784" s="3"/>
+      <c r="G784" s="3"/>
+      <c r="H784" s="3"/>
+    </row>
+    <row r="785" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D785" s="3"/>
+      <c r="E785" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H785" s="3"/>
+    </row>
+    <row r="786" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D786" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E786" s="3"/>
+      <c r="F786" s="3"/>
+      <c r="G786" s="3"/>
+      <c r="H786" s="3"/>
+    </row>
+    <row r="787" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B788" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1059,4 +8120,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="198">
   <si>
     <t>BLOCK_GROUP BlockGrouping[] = {</t>
     <phoneticPr fontId="1"/>
@@ -714,6 +714,88 @@
   <si>
     <t>false</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"CAM_STROBE"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP_STROBE_24</t>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H791"/>
+  <dimension ref="A1:H831"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A791" sqref="A1:XFD791"/>
+    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G735" sqref="G735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1091,9 +1173,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1102,22 +1184,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>7</v>
       </c>
@@ -1249,12 +1331,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>53</v>
       </c>
@@ -1265,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
         <v>166</v>
       </c>
@@ -1276,12 +1358,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1372,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -1299,7 +1381,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
         <v>9</v>
@@ -1308,7 +1390,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>23</v>
@@ -1321,7 +1403,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1330,12 +1412,12 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -1351,9 +1433,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1362,22 +1444,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>6</v>
       </c>
@@ -1388,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>6</v>
       </c>
@@ -1498,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>6</v>
       </c>
@@ -1509,12 +1591,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>53</v>
       </c>
@@ -1525,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E49" s="5" t="s">
         <v>166</v>
       </c>
@@ -1536,12 +1618,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D51" s="3" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1632,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
         <v>14</v>
@@ -1559,7 +1641,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -1568,7 +1650,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
         <v>23</v>
@@ -1581,7 +1663,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D55" s="3" t="s">
         <v>5</v>
       </c>
@@ -1590,12 +1672,12 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>9</v>
       </c>
@@ -1611,9 +1693,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -1622,22 +1704,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>2</v>
       </c>
@@ -1670,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>2</v>
       </c>
@@ -1703,12 +1785,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>51</v>
       </c>
@@ -1719,7 +1801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E71" s="5" t="s">
         <v>166</v>
       </c>
@@ -1730,12 +1812,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D73" s="3" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +1826,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
         <v>14</v>
@@ -1753,7 +1835,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -1762,7 +1844,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
         <v>23</v>
@@ -1775,7 +1857,7 @@
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D77" s="3" t="s">
         <v>5</v>
       </c>
@@ -1784,12 +1866,12 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>9</v>
       </c>
@@ -1805,9 +1887,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -1816,22 +1898,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
         <v>2</v>
       </c>
@@ -1842,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
         <v>2</v>
       </c>
@@ -1875,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
         <v>2</v>
       </c>
@@ -1886,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
         <v>2</v>
       </c>
@@ -1897,12 +1979,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E93" s="5" t="s">
         <v>166</v>
       </c>
@@ -1924,12 +2006,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +2020,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
@@ -1947,7 +2029,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
         <v>9</v>
@@ -1956,7 +2038,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
         <v>23</v>
@@ -1969,7 +2051,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D99" s="3" t="s">
         <v>5</v>
       </c>
@@ -1978,12 +2060,12 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>9</v>
       </c>
@@ -1999,9 +2081,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -2010,22 +2092,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F107" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F108" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F109" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F111" t="s">
         <v>2</v>
       </c>
@@ -2080,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F113" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F115" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
         <v>2</v>
       </c>
@@ -2157,12 +2239,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
         <v>53</v>
       </c>
@@ -2173,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E121" s="5" t="s">
         <v>166</v>
       </c>
@@ -2184,12 +2266,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D123" s="3" t="s">
         <v>20</v>
       </c>
@@ -2198,7 +2280,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
         <v>14</v>
@@ -2207,7 +2289,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
         <v>5</v>
@@ -2216,7 +2298,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
         <v>23</v>
@@ -2229,7 +2311,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D127" s="3" t="s">
         <v>5</v>
       </c>
@@ -2238,12 +2320,12 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>5</v>
       </c>
@@ -2259,9 +2341,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -2270,22 +2352,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F135" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F136" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F137" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F138" t="s">
         <v>2</v>
       </c>
@@ -2329,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F139" t="s">
         <v>2</v>
       </c>
@@ -2340,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F140" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F141" t="s">
         <v>2</v>
       </c>
@@ -2362,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F142" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F143" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F144" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F145" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F146" t="s">
         <v>2</v>
       </c>
@@ -2417,12 +2499,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
         <v>53</v>
       </c>
@@ -2433,7 +2515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E149" s="5" t="s">
         <v>166</v>
       </c>
@@ -2444,12 +2526,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D151" s="3" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2540,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
         <v>14</v>
@@ -2467,7 +2549,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
         <v>5</v>
@@ -2476,7 +2558,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
         <v>23</v>
@@ -2489,7 +2571,7 @@
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D155" s="3" t="s">
         <v>5</v>
       </c>
@@ -2498,12 +2580,12 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>5</v>
       </c>
@@ -2519,9 +2601,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -2530,22 +2612,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E162" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F163" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F164" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F165" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F166" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F167" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F168" t="s">
         <v>2</v>
       </c>
@@ -2611,12 +2693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E169" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E170" t="s">
         <v>51</v>
       </c>
@@ -2627,7 +2709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E171" s="5" t="s">
         <v>166</v>
       </c>
@@ -2638,12 +2720,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D173" s="3" t="s">
         <v>20</v>
       </c>
@@ -2652,7 +2734,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
         <v>14</v>
@@ -2661,7 +2743,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
         <v>5</v>
@@ -2670,7 +2752,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
         <v>23</v>
@@ -2683,7 +2765,7 @@
       </c>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D177" s="3" t="s">
         <v>5</v>
       </c>
@@ -2692,12 +2774,12 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>5</v>
       </c>
@@ -2713,9 +2795,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
@@ -2724,22 +2806,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E184" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F185" t="s">
         <v>2</v>
       </c>
@@ -2750,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F186" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F187" t="s">
         <v>2</v>
       </c>
@@ -2772,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F188" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F189" t="s">
         <v>2</v>
       </c>
@@ -2794,7 +2876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F190" t="s">
         <v>2</v>
       </c>
@@ -2805,12 +2887,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E191" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E192" t="s">
         <v>51</v>
       </c>
@@ -2821,7 +2903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E193" s="5" t="s">
         <v>166</v>
       </c>
@@ -2832,12 +2914,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D195" s="3" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +2928,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
         <v>14</v>
@@ -2855,7 +2937,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
         <v>5</v>
@@ -2864,7 +2946,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
         <v>23</v>
@@ -2877,7 +2959,7 @@
       </c>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D199" s="3" t="s">
         <v>5</v>
       </c>
@@ -2886,12 +2968,12 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>5</v>
       </c>
@@ -2907,9 +2989,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -2918,22 +3000,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D205" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E206" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F207" t="s">
         <v>2</v>
       </c>
@@ -2944,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F208" t="s">
         <v>2</v>
       </c>
@@ -2955,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F209" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F210" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F211" t="s">
         <v>2</v>
       </c>
@@ -2988,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F212" t="s">
         <v>2</v>
       </c>
@@ -2999,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F213" t="s">
         <v>2</v>
       </c>
@@ -3010,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F214" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F215" t="s">
         <v>2</v>
       </c>
@@ -3032,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F216" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F217" t="s">
         <v>2</v>
       </c>
@@ -3054,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F218" t="s">
         <v>2</v>
       </c>
@@ -3065,12 +3147,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E219" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E220" t="s">
         <v>53</v>
       </c>
@@ -3081,7 +3163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E221" s="5" t="s">
         <v>166</v>
       </c>
@@ -3092,22 +3174,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="222" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D223" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E224" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F225" t="s">
         <v>2</v>
       </c>
@@ -3118,12 +3200,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E226" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E227" t="s">
         <v>113</v>
       </c>
@@ -3134,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E228" s="5" t="s">
         <v>167</v>
       </c>
@@ -3145,12 +3227,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="229" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D229" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D230" s="3" t="s">
         <v>20</v>
       </c>
@@ -3159,7 +3241,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D231" s="3"/>
       <c r="E231" s="3" t="s">
         <v>14</v>
@@ -3168,7 +3250,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D232" s="3"/>
       <c r="E232" s="3" t="s">
         <v>5</v>
@@ -3177,7 +3259,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D233" s="3"/>
       <c r="E233" s="3" t="s">
         <v>23</v>
@@ -3190,7 +3272,7 @@
       </c>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D234" s="3" t="s">
         <v>5</v>
       </c>
@@ -3199,12 +3281,12 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>5</v>
       </c>
@@ -3220,9 +3302,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
@@ -3231,22 +3313,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E241" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F242" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F243" t="s">
         <v>2</v>
       </c>
@@ -3268,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F244" t="s">
         <v>2</v>
       </c>
@@ -3279,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F245" t="s">
         <v>2</v>
       </c>
@@ -3290,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F246" t="s">
         <v>2</v>
       </c>
@@ -3301,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F247" t="s">
         <v>2</v>
       </c>
@@ -3312,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F248" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F249" t="s">
         <v>2</v>
       </c>
@@ -3334,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F250" t="s">
         <v>2</v>
       </c>
@@ -3345,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F251" t="s">
         <v>2</v>
       </c>
@@ -3356,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F252" t="s">
         <v>2</v>
       </c>
@@ -3367,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F253" t="s">
         <v>2</v>
       </c>
@@ -3378,12 +3460,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E254" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E255" t="s">
         <v>53</v>
       </c>
@@ -3394,7 +3476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="5:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E256" s="5" t="s">
         <v>166</v>
       </c>
@@ -3405,22 +3487,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="257" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E259" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F260" t="s">
         <v>2</v>
       </c>
@@ -3431,12 +3513,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E261" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E262" t="s">
         <v>113</v>
       </c>
@@ -3447,7 +3529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E263" s="5" t="s">
         <v>168</v>
       </c>
@@ -3458,12 +3540,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="264" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D264" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D265" s="3" t="s">
         <v>20</v>
       </c>
@@ -3472,7 +3554,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D266" s="3"/>
       <c r="E266" s="3" t="s">
         <v>14</v>
@@ -3481,7 +3563,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D267" s="3"/>
       <c r="E267" s="3" t="s">
         <v>5</v>
@@ -3490,7 +3572,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D268" s="3"/>
       <c r="E268" s="3" t="s">
         <v>23</v>
@@ -3503,7 +3585,7 @@
       </c>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D269" s="3" t="s">
         <v>5</v>
       </c>
@@ -3512,12 +3594,12 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>5</v>
       </c>
@@ -3533,9 +3615,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -3544,22 +3626,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D275" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E276" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F277" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F278" t="s">
         <v>2</v>
       </c>
@@ -3581,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F279" t="s">
         <v>2</v>
       </c>
@@ -3592,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F280" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F281" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F282" t="s">
         <v>2</v>
       </c>
@@ -3625,7 +3707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F283" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F284" t="s">
         <v>2</v>
       </c>
@@ -3647,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F285" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F286" t="s">
         <v>2</v>
       </c>
@@ -3669,7 +3751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F287" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F288" t="s">
         <v>2</v>
       </c>
@@ -3691,12 +3773,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E289" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E290" t="s">
         <v>53</v>
       </c>
@@ -3707,7 +3789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E291" s="5" t="s">
         <v>166</v>
       </c>
@@ -3718,22 +3800,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="292" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E294" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F295" t="s">
         <v>2</v>
       </c>
@@ -3744,12 +3826,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E296" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E297" t="s">
         <v>113</v>
       </c>
@@ -3760,7 +3842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E298" s="5" t="s">
         <v>169</v>
       </c>
@@ -3771,12 +3853,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="299" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D300" s="3" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3867,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
         <v>14</v>
@@ -3794,7 +3876,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D302" s="3"/>
       <c r="E302" s="3" t="s">
         <v>5</v>
@@ -3803,7 +3885,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
         <v>23</v>
@@ -3816,7 +3898,7 @@
       </c>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D304" s="3" t="s">
         <v>5</v>
       </c>
@@ -3825,12 +3907,12 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C305" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>5</v>
       </c>
@@ -3846,9 +3928,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -3857,22 +3939,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D310" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F312" t="s">
         <v>2</v>
       </c>
@@ -3883,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F313" t="s">
         <v>2</v>
       </c>
@@ -3894,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F314" t="s">
         <v>2</v>
       </c>
@@ -3905,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F315" t="s">
         <v>2</v>
       </c>
@@ -3916,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F316" t="s">
         <v>2</v>
       </c>
@@ -3927,7 +4009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F317" t="s">
         <v>2</v>
       </c>
@@ -3938,7 +4020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F318" t="s">
         <v>2</v>
       </c>
@@ -3949,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F319" t="s">
         <v>2</v>
       </c>
@@ -3960,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F320" t="s">
         <v>2</v>
       </c>
@@ -3971,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F321" t="s">
         <v>2</v>
       </c>
@@ -3982,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F322" t="s">
         <v>2</v>
       </c>
@@ -3993,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F323" t="s">
         <v>2</v>
       </c>
@@ -4004,12 +4086,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E324" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E325" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E326" s="5" t="s">
         <v>166</v>
       </c>
@@ -4031,22 +4113,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="327" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E329" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F330" t="s">
         <v>2</v>
       </c>
@@ -4057,12 +4139,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>113</v>
       </c>
@@ -4073,7 +4155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E333" s="5" t="s">
         <v>169</v>
       </c>
@@ -4084,12 +4166,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="334" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D335" s="3" t="s">
         <v>20</v>
       </c>
@@ -4098,7 +4180,7 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D336" s="3"/>
       <c r="E336" s="3" t="s">
         <v>14</v>
@@ -4107,7 +4189,7 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D337" s="3"/>
       <c r="E337" s="3" t="s">
         <v>5</v>
@@ -4116,7 +4198,7 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D338" s="3"/>
       <c r="E338" s="3" t="s">
         <v>23</v>
@@ -4129,7 +4211,7 @@
       </c>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D339" s="3" t="s">
         <v>5</v>
       </c>
@@ -4138,12 +4220,12 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>5</v>
       </c>
@@ -4159,9 +4241,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D343" t="s">
         <v>4</v>
@@ -4170,22 +4252,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C344" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D345" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E346" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F347" t="s">
         <v>2</v>
       </c>
@@ -4196,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F348" t="s">
         <v>2</v>
       </c>
@@ -4207,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F349" t="s">
         <v>2</v>
       </c>
@@ -4218,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F350" t="s">
         <v>2</v>
       </c>
@@ -4229,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F351" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F352" t="s">
         <v>2</v>
       </c>
@@ -4251,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F353" t="s">
         <v>2</v>
       </c>
@@ -4262,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F354" t="s">
         <v>2</v>
       </c>
@@ -4273,7 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F355" t="s">
         <v>2</v>
       </c>
@@ -4284,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F356" t="s">
         <v>2</v>
       </c>
@@ -4295,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F357" t="s">
         <v>2</v>
       </c>
@@ -4306,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F358" t="s">
         <v>2</v>
       </c>
@@ -4317,12 +4399,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E359" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E360" t="s">
         <v>54</v>
       </c>
@@ -4333,7 +4415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E361" s="5" t="s">
         <v>166</v>
       </c>
@@ -4344,12 +4426,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="362" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D362" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D363" s="3" t="s">
         <v>20</v>
       </c>
@@ -4358,7 +4440,7 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
         <v>14</v>
@@ -4367,7 +4449,7 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
         <v>9</v>
@@ -4376,7 +4458,7 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
         <v>24</v>
@@ -4389,7 +4471,7 @@
       </c>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D367" s="3" t="s">
         <v>15</v>
       </c>
@@ -4398,12 +4480,12 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C368" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>17</v>
       </c>
@@ -4419,9 +4501,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D371" t="s">
         <v>4</v>
@@ -4430,22 +4512,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D373" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E374" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F375" t="s">
         <v>2</v>
       </c>
@@ -4456,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F376" t="s">
         <v>2</v>
       </c>
@@ -4467,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F377" t="s">
         <v>2</v>
       </c>
@@ -4478,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F378" t="s">
         <v>2</v>
       </c>
@@ -4489,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F379" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F380" t="s">
         <v>2</v>
       </c>
@@ -4511,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F381" t="s">
         <v>2</v>
       </c>
@@ -4522,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F382" t="s">
         <v>2</v>
       </c>
@@ -4533,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F383" t="s">
         <v>2</v>
       </c>
@@ -4544,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F384" t="s">
         <v>2</v>
       </c>
@@ -4555,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F385" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F386" t="s">
         <v>2</v>
       </c>
@@ -4577,12 +4659,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E387" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E388" t="s">
         <v>54</v>
       </c>
@@ -4593,7 +4675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E389" s="5" t="s">
         <v>166</v>
       </c>
@@ -4604,12 +4686,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="390" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D390" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D391" s="3" t="s">
         <v>20</v>
       </c>
@@ -4618,7 +4700,7 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
         <v>14</v>
@@ -4627,7 +4709,7 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
         <v>9</v>
@@ -4636,7 +4718,7 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
         <v>23</v>
@@ -4649,7 +4731,7 @@
       </c>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D395" s="3" t="s">
         <v>5</v>
       </c>
@@ -4658,12 +4740,12 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C396" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>9</v>
       </c>
@@ -4679,9 +4761,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -4690,22 +4772,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C400" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D401" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E402" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F403" t="s">
         <v>2</v>
       </c>
@@ -4716,7 +4798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F404" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F405" t="s">
         <v>2</v>
       </c>
@@ -4738,7 +4820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F406" t="s">
         <v>2</v>
       </c>
@@ -4749,7 +4831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F407" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F408" t="s">
         <v>2</v>
       </c>
@@ -4771,12 +4853,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E409" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E410" t="s">
         <v>42</v>
       </c>
@@ -4787,7 +4869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E411" s="5" t="s">
         <v>166</v>
       </c>
@@ -4798,12 +4880,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="412" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D412" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D413" s="3" t="s">
         <v>20</v>
       </c>
@@ -4812,7 +4894,7 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
         <v>14</v>
@@ -4821,7 +4903,7 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
         <v>9</v>
@@ -4830,7 +4912,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D416" s="3"/>
       <c r="E416" s="3" t="s">
         <v>23</v>
@@ -4843,7 +4925,7 @@
       </c>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D417" s="3" t="s">
         <v>5</v>
       </c>
@@ -4852,12 +4934,12 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C418" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>9</v>
       </c>
@@ -4873,9 +4955,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -4884,22 +4966,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D423" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E424" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F425" t="s">
         <v>2</v>
       </c>
@@ -4910,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F426" t="s">
         <v>2</v>
       </c>
@@ -4921,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F427" t="s">
         <v>2</v>
       </c>
@@ -4932,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F428" t="s">
         <v>2</v>
       </c>
@@ -4943,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F429" t="s">
         <v>2</v>
       </c>
@@ -4954,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F430" t="s">
         <v>2</v>
       </c>
@@ -4965,12 +5047,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E431" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E432" t="s">
         <v>42</v>
       </c>
@@ -4981,7 +5063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="433" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E433" s="5" t="s">
         <v>166</v>
       </c>
@@ -4992,12 +5074,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="434" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D434" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D435" s="3" t="s">
         <v>20</v>
       </c>
@@ -5006,7 +5088,7 @@
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
         <v>14</v>
@@ -5015,7 +5097,7 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D437" s="3"/>
       <c r="E437" s="3" t="s">
         <v>9</v>
@@ -5024,7 +5106,7 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
         <v>23</v>
@@ -5037,7 +5119,7 @@
       </c>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D439" s="3" t="s">
         <v>5</v>
       </c>
@@ -5046,12 +5128,12 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C440" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
         <v>9</v>
       </c>
@@ -5067,9 +5149,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -5078,22 +5160,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C444" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D445" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E446" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F447" t="s">
         <v>2</v>
       </c>
@@ -5104,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F448" t="s">
         <v>2</v>
       </c>
@@ -5115,7 +5197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F449" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F450" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F451" t="s">
         <v>2</v>
       </c>
@@ -5148,7 +5230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F452" t="s">
         <v>2</v>
       </c>
@@ -5159,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F453" t="s">
         <v>2</v>
       </c>
@@ -5170,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F454" t="s">
         <v>2</v>
       </c>
@@ -5181,7 +5263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F455" t="s">
         <v>2</v>
       </c>
@@ -5192,7 +5274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F456" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F457" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F458" t="s">
         <v>2</v>
       </c>
@@ -5225,12 +5307,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E459" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E460" t="s">
         <v>54</v>
       </c>
@@ -5241,7 +5323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E461" s="5" t="s">
         <v>166</v>
       </c>
@@ -5252,12 +5334,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="462" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D462" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D463" s="3" t="s">
         <v>20</v>
       </c>
@@ -5266,7 +5348,7 @@
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
         <v>14</v>
@@ -5275,7 +5357,7 @@
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
         <v>5</v>
@@ -5284,7 +5366,7 @@
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
         <v>23</v>
@@ -5297,7 +5379,7 @@
       </c>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D467" s="3" t="s">
         <v>5</v>
       </c>
@@ -5306,12 +5388,12 @@
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C468" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
         <v>5</v>
       </c>
@@ -5327,9 +5409,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D471" t="s">
         <v>3</v>
@@ -5338,22 +5420,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C472" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D473" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E474" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F475" t="s">
         <v>2</v>
       </c>
@@ -5364,7 +5446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F476" t="s">
         <v>2</v>
       </c>
@@ -5375,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F477" t="s">
         <v>2</v>
       </c>
@@ -5386,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F478" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F479" t="s">
         <v>2</v>
       </c>
@@ -5408,7 +5490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F480" t="s">
         <v>2</v>
       </c>
@@ -5419,7 +5501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F481" t="s">
         <v>2</v>
       </c>
@@ -5430,7 +5512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F482" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F483" t="s">
         <v>2</v>
       </c>
@@ -5452,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F484" t="s">
         <v>2</v>
       </c>
@@ -5463,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F485" t="s">
         <v>2</v>
       </c>
@@ -5474,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F486" t="s">
         <v>2</v>
       </c>
@@ -5485,12 +5567,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E487" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E488" t="s">
         <v>54</v>
       </c>
@@ -5501,7 +5583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E489" s="5" t="s">
         <v>166</v>
       </c>
@@ -5512,12 +5594,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="490" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D490" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D491" s="3" t="s">
         <v>20</v>
       </c>
@@ -5526,7 +5608,7 @@
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
         <v>14</v>
@@ -5535,7 +5617,7 @@
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
         <v>5</v>
@@ -5544,7 +5626,7 @@
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
         <v>23</v>
@@ -5557,7 +5639,7 @@
       </c>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="3:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D495" s="3" t="s">
         <v>5</v>
       </c>
@@ -5566,12 +5648,12 @@
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C496" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
         <v>5</v>
       </c>
@@ -5587,9 +5669,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -5598,22 +5680,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C500" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D501" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E502" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F503" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F504" t="s">
         <v>2</v>
       </c>
@@ -5635,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F505" t="s">
         <v>2</v>
       </c>
@@ -5646,7 +5728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F506" t="s">
         <v>2</v>
       </c>
@@ -5657,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F507" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F508" t="s">
         <v>2</v>
       </c>
@@ -5679,12 +5761,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E509" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E510" t="s">
         <v>42</v>
       </c>
@@ -5695,7 +5777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="511" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E511" s="5" t="s">
         <v>166</v>
       </c>
@@ -5706,12 +5788,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="512" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D512" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D513" s="3" t="s">
         <v>20</v>
       </c>
@@ -5720,7 +5802,7 @@
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
         <v>14</v>
@@ -5729,7 +5811,7 @@
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
         <v>5</v>
@@ -5738,7 +5820,7 @@
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
         <v>23</v>
@@ -5751,7 +5833,7 @@
       </c>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D517" s="3" t="s">
         <v>5</v>
       </c>
@@ -5760,12 +5842,12 @@
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C518" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>5</v>
       </c>
@@ -5781,9 +5863,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D521" t="s">
         <v>3</v>
@@ -5792,22 +5874,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="522" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C522" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D523" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E524" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F525" t="s">
         <v>2</v>
       </c>
@@ -5818,7 +5900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F526" t="s">
         <v>2</v>
       </c>
@@ -5829,7 +5911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F527" t="s">
         <v>2</v>
       </c>
@@ -5840,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F528" t="s">
         <v>2</v>
       </c>
@@ -5851,7 +5933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F529" t="s">
         <v>2</v>
       </c>
@@ -5862,7 +5944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F530" t="s">
         <v>2</v>
       </c>
@@ -5873,12 +5955,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E531" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E532" t="s">
         <v>42</v>
       </c>
@@ -5889,7 +5971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E533" s="5" t="s">
         <v>166</v>
       </c>
@@ -5900,12 +5982,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="534" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D534" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D535" s="3" t="s">
         <v>20</v>
       </c>
@@ -5914,7 +5996,7 @@
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D536" s="3"/>
       <c r="E536" s="3" t="s">
         <v>14</v>
@@ -5923,7 +6005,7 @@
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D537" s="3"/>
       <c r="E537" s="3" t="s">
         <v>5</v>
@@ -5932,7 +6014,7 @@
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D538" s="3"/>
       <c r="E538" s="3" t="s">
         <v>23</v>
@@ -5945,7 +6027,7 @@
       </c>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D539" s="3" t="s">
         <v>5</v>
       </c>
@@ -5954,12 +6036,12 @@
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C540" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
         <v>5</v>
       </c>
@@ -5975,9 +6057,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -5986,22 +6068,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C544" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D545" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E546" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F547" t="s">
         <v>2</v>
       </c>
@@ -6012,7 +6094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F548" t="s">
         <v>2</v>
       </c>
@@ -6023,7 +6105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F549" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +6116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F550" t="s">
         <v>2</v>
       </c>
@@ -6045,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F551" t="s">
         <v>2</v>
       </c>
@@ -6056,7 +6138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F552" t="s">
         <v>2</v>
       </c>
@@ -6067,7 +6149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F553" t="s">
         <v>2</v>
       </c>
@@ -6078,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F554" t="s">
         <v>2</v>
       </c>
@@ -6089,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F555" t="s">
         <v>2</v>
       </c>
@@ -6100,7 +6182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F556" t="s">
         <v>2</v>
       </c>
@@ -6111,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F557" t="s">
         <v>2</v>
       </c>
@@ -6122,7 +6204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F558" t="s">
         <v>2</v>
       </c>
@@ -6133,12 +6215,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E559" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E560" t="s">
         <v>54</v>
       </c>
@@ -6149,7 +6231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E561" s="5" t="s">
         <v>166</v>
       </c>
@@ -6160,22 +6242,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="562" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D562" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="563" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D563" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E564" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F565" t="s">
         <v>2</v>
       </c>
@@ -6186,12 +6268,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E566" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E567" t="s">
         <v>113</v>
       </c>
@@ -6202,7 +6284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E568" s="5" t="s">
         <v>170</v>
       </c>
@@ -6213,12 +6295,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="569" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D569" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D570" s="3" t="s">
         <v>20</v>
       </c>
@@ -6227,7 +6309,7 @@
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D571" s="3"/>
       <c r="E571" s="3" t="s">
         <v>14</v>
@@ -6236,7 +6318,7 @@
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D572" s="3"/>
       <c r="E572" s="3" t="s">
         <v>5</v>
@@ -6245,7 +6327,7 @@
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D573" s="3"/>
       <c r="E573" s="3" t="s">
         <v>24</v>
@@ -6258,7 +6340,7 @@
       </c>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D574" s="3" t="s">
         <v>5</v>
       </c>
@@ -6267,12 +6349,12 @@
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C575" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
         <v>5</v>
       </c>
@@ -6288,9 +6370,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D578" t="s">
         <v>3</v>
@@ -6299,22 +6381,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C579" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D580" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E581" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F582" t="s">
         <v>2</v>
       </c>
@@ -6325,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F583" t="s">
         <v>2</v>
       </c>
@@ -6336,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F584" t="s">
         <v>2</v>
       </c>
@@ -6347,7 +6429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F585" t="s">
         <v>2</v>
       </c>
@@ -6358,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F586" t="s">
         <v>2</v>
       </c>
@@ -6369,7 +6451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F587" t="s">
         <v>2</v>
       </c>
@@ -6380,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F588" t="s">
         <v>2</v>
       </c>
@@ -6391,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F589" t="s">
         <v>2</v>
       </c>
@@ -6402,7 +6484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F590" t="s">
         <v>2</v>
       </c>
@@ -6413,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F591" t="s">
         <v>2</v>
       </c>
@@ -6424,7 +6506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F592" t="s">
         <v>2</v>
       </c>
@@ -6435,7 +6517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F593" t="s">
         <v>2</v>
       </c>
@@ -6446,12 +6528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E594" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E595" t="s">
         <v>54</v>
       </c>
@@ -6462,7 +6544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="596" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E596" s="5" t="s">
         <v>166</v>
       </c>
@@ -6473,22 +6555,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="597" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D597" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D598" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E599" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F600" t="s">
         <v>2</v>
       </c>
@@ -6499,12 +6581,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E601" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E602" t="s">
         <v>113</v>
       </c>
@@ -6515,7 +6597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="603" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E603" s="5" t="s">
         <v>171</v>
       </c>
@@ -6526,12 +6608,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="604" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D604" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D605" s="3" t="s">
         <v>20</v>
       </c>
@@ -6540,7 +6622,7 @@
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D606" s="3"/>
       <c r="E606" s="3" t="s">
         <v>14</v>
@@ -6549,7 +6631,7 @@
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D607" s="3"/>
       <c r="E607" s="3" t="s">
         <v>5</v>
@@ -6558,7 +6640,7 @@
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D608" s="3"/>
       <c r="E608" s="3" t="s">
         <v>24</v>
@@ -6571,7 +6653,7 @@
       </c>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D609" s="3" t="s">
         <v>5</v>
       </c>
@@ -6580,12 +6662,12 @@
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B611" t="s">
         <v>5</v>
       </c>
@@ -6601,9 +6683,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D613" t="s">
         <v>3</v>
@@ -6612,22 +6694,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="614" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D615" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E616" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F617" t="s">
         <v>2</v>
       </c>
@@ -6638,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F618" t="s">
         <v>2</v>
       </c>
@@ -6649,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F619" t="s">
         <v>2</v>
       </c>
@@ -6660,7 +6742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F620" t="s">
         <v>2</v>
       </c>
@@ -6671,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F621" t="s">
         <v>2</v>
       </c>
@@ -6682,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F622" t="s">
         <v>2</v>
       </c>
@@ -6693,7 +6775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F623" t="s">
         <v>2</v>
       </c>
@@ -6704,7 +6786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F624" t="s">
         <v>2</v>
       </c>
@@ -6715,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F625" t="s">
         <v>2</v>
       </c>
@@ -6726,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F626" t="s">
         <v>2</v>
       </c>
@@ -6737,7 +6819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F627" t="s">
         <v>2</v>
       </c>
@@ -6748,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F628" t="s">
         <v>2</v>
       </c>
@@ -6759,12 +6841,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E629" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E630" t="s">
         <v>54</v>
       </c>
@@ -6775,7 +6857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="631" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E631" s="5" t="s">
         <v>166</v>
       </c>
@@ -6786,22 +6868,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="632" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D632" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D633" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="634" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E634" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F635" t="s">
         <v>2</v>
       </c>
@@ -6812,12 +6894,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E636" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E637" t="s">
         <v>113</v>
       </c>
@@ -6828,7 +6910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E638" s="5" t="s">
         <v>167</v>
       </c>
@@ -6839,12 +6921,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="639" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D639" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="4:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D640" s="3" t="s">
         <v>20</v>
       </c>
@@ -6853,7 +6935,7 @@
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D641" s="3"/>
       <c r="E641" s="3" t="s">
         <v>14</v>
@@ -6862,7 +6944,7 @@
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D642" s="3"/>
       <c r="E642" s="3" t="s">
         <v>5</v>
@@ -6871,7 +6953,7 @@
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D643" s="3"/>
       <c r="E643" s="3" t="s">
         <v>24</v>
@@ -6884,7 +6966,7 @@
       </c>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D644" s="3" t="s">
         <v>5</v>
       </c>
@@ -6893,12 +6975,12 @@
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C645" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B646" t="s">
         <v>5</v>
       </c>
@@ -6914,9 +6996,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -6925,22 +7007,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C649" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D650" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E651" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="652" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F652" t="s">
         <v>2</v>
       </c>
@@ -6951,7 +7033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F653" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +7044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F654" t="s">
         <v>2</v>
       </c>
@@ -6973,7 +7055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F655" t="s">
         <v>2</v>
       </c>
@@ -6984,7 +7066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F656" t="s">
         <v>2</v>
       </c>
@@ -6995,7 +7077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F657" t="s">
         <v>2</v>
       </c>
@@ -7006,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F658" t="s">
         <v>2</v>
       </c>
@@ -7017,7 +7099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F659" t="s">
         <v>2</v>
       </c>
@@ -7028,7 +7110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F660" t="s">
         <v>2</v>
       </c>
@@ -7039,7 +7121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F661" t="s">
         <v>2</v>
       </c>
@@ -7050,7 +7132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F662" t="s">
         <v>2</v>
       </c>
@@ -7061,7 +7143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F663" t="s">
         <v>2</v>
       </c>
@@ -7072,12 +7154,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E664" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E665" t="s">
         <v>54</v>
       </c>
@@ -7088,7 +7170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="666" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E666" s="5" t="s">
         <v>166</v>
       </c>
@@ -7099,22 +7181,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="667" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D667" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D668" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E669" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F670" t="s">
         <v>2</v>
       </c>
@@ -7125,12 +7207,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E671" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="4:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E672" t="s">
         <v>113</v>
       </c>
@@ -7141,7 +7223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E673" s="5" t="s">
         <v>168</v>
       </c>
@@ -7152,12 +7234,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="674" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D674" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D675" s="3" t="s">
         <v>20</v>
       </c>
@@ -7166,7 +7248,7 @@
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D676" s="3"/>
       <c r="E676" s="3" t="s">
         <v>14</v>
@@ -7175,7 +7257,7 @@
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D677" s="3"/>
       <c r="E677" s="3" t="s">
         <v>5</v>
@@ -7184,7 +7266,7 @@
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D678" s="3"/>
       <c r="E678" s="3" t="s">
         <v>24</v>
@@ -7197,7 +7279,7 @@
       </c>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D679" s="3" t="s">
         <v>5</v>
       </c>
@@ -7206,12 +7288,12 @@
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C680" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="681" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B681" t="s">
         <v>5</v>
       </c>
@@ -7227,9 +7309,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D683" t="s">
         <v>3</v>
@@ -7238,22 +7320,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="684" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D685" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E686" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F687" t="s">
         <v>2</v>
       </c>
@@ -7264,12 +7346,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="688" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E688" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E689" t="s">
         <v>147</v>
       </c>
@@ -7280,7 +7362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E690" s="5" t="s">
         <v>166</v>
       </c>
@@ -7291,12 +7373,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="691" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D691" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D692" s="3" t="s">
         <v>20</v>
       </c>
@@ -7305,7 +7387,7 @@
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D693" s="3"/>
       <c r="E693" s="3" t="s">
         <v>14</v>
@@ -7314,7 +7396,7 @@
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D694" s="3"/>
       <c r="E694" s="3" t="s">
         <v>5</v>
@@ -7323,7 +7405,7 @@
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D695" s="3"/>
       <c r="E695" s="3" t="s">
         <v>23</v>
@@ -7336,7 +7418,7 @@
       </c>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D696" s="3" t="s">
         <v>5</v>
       </c>
@@ -7345,12 +7427,12 @@
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B698" t="s">
         <v>5</v>
       </c>
@@ -7366,9 +7448,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D700" t="s">
         <v>3</v>
@@ -7377,22 +7459,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D702" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E703" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="704" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F704" t="s">
         <v>2</v>
       </c>
@@ -7403,7 +7485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F705" t="s">
         <v>2</v>
       </c>
@@ -7414,12 +7496,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E706" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E707" t="s">
         <v>150</v>
       </c>
@@ -7430,7 +7512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="708" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E708" s="5" t="s">
         <v>166</v>
       </c>
@@ -7441,12 +7523,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="709" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D709" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D710" s="3" t="s">
         <v>20</v>
       </c>
@@ -7455,7 +7537,7 @@
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D711" s="3"/>
       <c r="E711" s="3" t="s">
         <v>14</v>
@@ -7464,7 +7546,7 @@
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D712" s="3"/>
       <c r="E712" s="3" t="s">
         <v>9</v>
@@ -7473,7 +7555,7 @@
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D713" s="3"/>
       <c r="E713" s="3" t="s">
         <v>23</v>
@@ -7486,7 +7568,7 @@
       </c>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D714" s="3" t="s">
         <v>5</v>
       </c>
@@ -7495,12 +7577,12 @@
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C715" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B716" t="s">
         <v>9</v>
       </c>
@@ -7516,9 +7598,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="718" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D718" t="s">
         <v>3</v>
@@ -7527,22 +7609,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C719" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="720" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D720" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="721" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E721" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F722" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F723" t="s">
         <v>2</v>
       </c>
@@ -7564,12 +7646,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E724" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="725" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E725" t="s">
         <v>151</v>
       </c>
@@ -7580,7 +7662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="726" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E726" s="5" t="s">
         <v>166</v>
       </c>
@@ -7591,12 +7673,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="727" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D727" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D728" s="3" t="s">
         <v>20</v>
       </c>
@@ -7605,7 +7687,7 @@
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D729" s="3"/>
       <c r="E729" s="3" t="s">
         <v>14</v>
@@ -7614,7 +7696,7 @@
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D730" s="3"/>
       <c r="E730" s="3" t="s">
         <v>9</v>
@@ -7623,7 +7705,7 @@
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D731" s="3"/>
       <c r="E731" s="3" t="s">
         <v>23</v>
@@ -7636,7 +7718,7 @@
       </c>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D732" s="3" t="s">
         <v>5</v>
       </c>
@@ -7645,12 +7727,12 @@
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C733" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B734" t="s">
         <v>9</v>
       </c>
@@ -7666,9 +7748,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D736" t="s">
         <v>3</v>
@@ -7677,22 +7759,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="737" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C737" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="738" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D738" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E739" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="740" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F740" t="s">
         <v>2</v>
       </c>
@@ -7703,7 +7785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="741" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F741" t="s">
         <v>2</v>
       </c>
@@ -7714,12 +7796,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E742" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E743" t="s">
         <v>151</v>
       </c>
@@ -7730,7 +7812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="744" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E744" s="5" t="s">
         <v>166</v>
       </c>
@@ -7741,12 +7823,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="745" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D745" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D746" s="3" t="s">
         <v>20</v>
       </c>
@@ -7755,7 +7837,7 @@
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D747" s="3"/>
       <c r="E747" s="3" t="s">
         <v>14</v>
@@ -7764,7 +7846,7 @@
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D748" s="3"/>
       <c r="E748" s="3" t="s">
         <v>5</v>
@@ -7773,7 +7855,7 @@
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D749" s="3"/>
       <c r="E749" s="3" t="s">
         <v>23</v>
@@ -7786,7 +7868,7 @@
       </c>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D750" s="3" t="s">
         <v>5</v>
       </c>
@@ -7795,12 +7877,12 @@
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C751" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="752" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B752" t="s">
         <v>5</v>
       </c>
@@ -7816,9 +7898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D754" t="s">
         <v>3</v>
@@ -7827,22 +7909,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="755" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C755" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="756" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D756" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E757" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="758" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F758" t="s">
         <v>2</v>
       </c>
@@ -7853,7 +7935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F759" t="s">
         <v>2</v>
       </c>
@@ -7864,12 +7946,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E760" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E761" t="s">
         <v>151</v>
       </c>
@@ -7880,7 +7962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="762" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E762" s="5" t="s">
         <v>166</v>
       </c>
@@ -7891,12 +7973,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="763" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D763" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D764" s="3" t="s">
         <v>20</v>
       </c>
@@ -7905,7 +7987,7 @@
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D765" s="3"/>
       <c r="E765" s="3" t="s">
         <v>14</v>
@@ -7914,7 +7996,7 @@
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D766" s="3"/>
       <c r="E766" s="3" t="s">
         <v>5</v>
@@ -7923,7 +8005,7 @@
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D767" s="3"/>
       <c r="E767" s="3" t="s">
         <v>23</v>
@@ -7936,7 +8018,7 @@
       </c>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D768" s="3" t="s">
         <v>5</v>
       </c>
@@ -7945,12 +8027,12 @@
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C769" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="770" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B770" t="s">
         <v>5</v>
       </c>
@@ -7966,9 +8048,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D772" t="s">
         <v>3</v>
@@ -7977,22 +8059,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="773" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C773" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="774" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D774" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E775" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="776" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F776" t="s">
         <v>2</v>
       </c>
@@ -8003,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="F777" t="s">
         <v>2</v>
       </c>
@@ -8014,12 +8096,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="778" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E778" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E779" t="s">
         <v>151</v>
       </c>
@@ -8030,7 +8112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="780" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E780" s="5" t="s">
         <v>166</v>
       </c>
@@ -8041,12 +8123,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="781" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D781" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D782" s="3" t="s">
         <v>20</v>
       </c>
@@ -8055,7 +8137,7 @@
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D783" s="3"/>
       <c r="E783" s="3" t="s">
         <v>14</v>
@@ -8064,7 +8146,7 @@
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="2:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D784" s="3"/>
       <c r="E784" s="3" t="s">
         <v>5</v>
@@ -8073,7 +8155,7 @@
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D785" s="3"/>
       <c r="E785" s="3" t="s">
         <v>23</v>
@@ -8086,7 +8168,7 @@
       </c>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="1:8" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D786" s="3" t="s">
         <v>5</v>
       </c>
@@ -8095,23 +8177,415 @@
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C787" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B788" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A789" t="s">
+    <row r="789" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B789" t="s">
+        <v>2</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D789" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C790">
         <v>1</v>
       </c>
-    </row>
-    <row r="791" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A791" s="2" t="s">
+      <c r="D790" t="s">
+        <v>3</v>
+      </c>
+      <c r="E790" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="791" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C791" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="792" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D792" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="793" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E793" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="794" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F794" t="s">
+        <v>2</v>
+      </c>
+      <c r="G794" t="s">
+        <v>174</v>
+      </c>
+      <c r="H794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F795" t="s">
+        <v>2</v>
+      </c>
+      <c r="G795" t="s">
+        <v>175</v>
+      </c>
+      <c r="H795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F796" t="s">
+        <v>2</v>
+      </c>
+      <c r="G796" t="s">
+        <v>176</v>
+      </c>
+      <c r="H796" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F797" t="s">
+        <v>2</v>
+      </c>
+      <c r="G797" t="s">
+        <v>177</v>
+      </c>
+      <c r="H797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F798" t="s">
+        <v>2</v>
+      </c>
+      <c r="G798" t="s">
+        <v>178</v>
+      </c>
+      <c r="H798" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F799" t="s">
+        <v>2</v>
+      </c>
+      <c r="G799" t="s">
+        <v>179</v>
+      </c>
+      <c r="H799" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F800" t="s">
+        <v>2</v>
+      </c>
+      <c r="G800" t="s">
+        <v>180</v>
+      </c>
+      <c r="H800" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F801" t="s">
+        <v>2</v>
+      </c>
+      <c r="G801" t="s">
+        <v>181</v>
+      </c>
+      <c r="H801" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F802" t="s">
+        <v>2</v>
+      </c>
+      <c r="G802" t="s">
+        <v>182</v>
+      </c>
+      <c r="H802" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F803" t="s">
+        <v>2</v>
+      </c>
+      <c r="G803" t="s">
+        <v>183</v>
+      </c>
+      <c r="H803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F804" t="s">
+        <v>2</v>
+      </c>
+      <c r="G804" t="s">
+        <v>184</v>
+      </c>
+      <c r="H804" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F805" t="s">
+        <v>2</v>
+      </c>
+      <c r="G805" t="s">
+        <v>185</v>
+      </c>
+      <c r="H805" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F806" t="s">
+        <v>2</v>
+      </c>
+      <c r="G806" t="s">
+        <v>186</v>
+      </c>
+      <c r="H806" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F807" t="s">
+        <v>2</v>
+      </c>
+      <c r="G807" t="s">
+        <v>187</v>
+      </c>
+      <c r="H807" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F808" t="s">
+        <v>2</v>
+      </c>
+      <c r="G808" t="s">
+        <v>188</v>
+      </c>
+      <c r="H808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F809" t="s">
+        <v>2</v>
+      </c>
+      <c r="G809" t="s">
+        <v>189</v>
+      </c>
+      <c r="H809" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F810" t="s">
+        <v>2</v>
+      </c>
+      <c r="G810" t="s">
+        <v>190</v>
+      </c>
+      <c r="H810" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F811" t="s">
+        <v>2</v>
+      </c>
+      <c r="G811" t="s">
+        <v>191</v>
+      </c>
+      <c r="H811" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F812" t="s">
+        <v>2</v>
+      </c>
+      <c r="G812" t="s">
+        <v>192</v>
+      </c>
+      <c r="H812" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F813" t="s">
+        <v>2</v>
+      </c>
+      <c r="G813" t="s">
+        <v>193</v>
+      </c>
+      <c r="H813" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F814" t="s">
+        <v>2</v>
+      </c>
+      <c r="G814" t="s">
+        <v>194</v>
+      </c>
+      <c r="H814" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F815" t="s">
+        <v>2</v>
+      </c>
+      <c r="G815" t="s">
+        <v>195</v>
+      </c>
+      <c r="H815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="6:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F816" t="s">
+        <v>2</v>
+      </c>
+      <c r="G816" t="s">
+        <v>196</v>
+      </c>
+      <c r="H816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F817" t="s">
+        <v>2</v>
+      </c>
+      <c r="G817" t="s">
+        <v>197</v>
+      </c>
+      <c r="H817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E818" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E819" t="s">
+        <v>173</v>
+      </c>
+      <c r="F819" t="s">
+        <v>3</v>
+      </c>
+      <c r="G819" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E820" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F820" t="s">
+        <v>164</v>
+      </c>
+      <c r="G820" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D822" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E822" s="3"/>
+      <c r="F822" s="3"/>
+      <c r="G822" s="3"/>
+      <c r="H822" s="3"/>
+    </row>
+    <row r="823" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D823" s="3"/>
+      <c r="E823" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F823" s="3"/>
+      <c r="G823" s="3"/>
+      <c r="H823" s="3"/>
+    </row>
+    <row r="824" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D824" s="3"/>
+      <c r="E824" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F824" s="3"/>
+      <c r="G824" s="3"/>
+      <c r="H824" s="3"/>
+    </row>
+    <row r="825" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D825" s="3"/>
+      <c r="E825" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H825" s="3"/>
+    </row>
+    <row r="826" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D826" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E826" s="3"/>
+      <c r="F826" s="3"/>
+      <c r="G826" s="3"/>
+      <c r="H826" s="3"/>
+    </row>
+    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C827" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B828" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="200">
   <si>
     <t>BLOCK_GROUP BlockGrouping[] = {</t>
     <phoneticPr fontId="1"/>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"CAM_STROBE"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BP_STROBE_24</t>
   </si>
   <si>
@@ -796,6 +792,18 @@
   </si>
   <si>
     <t>23,</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"CAM_STROBE_SINGLE_COLOR"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"CAM_STROBE_COLOR_SYNC"</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1139,17 +1147,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H831"/>
+  <dimension ref="A1:H871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G735" sqref="G735"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
@@ -8192,7 +8198,7 @@
         <v>2</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="D789" t="s">
         <v>3</v>
@@ -8229,7 +8235,7 @@
         <v>2</v>
       </c>
       <c r="G794" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H794" t="s">
         <v>5</v>
@@ -8240,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="G795" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H795" t="s">
         <v>5</v>
@@ -8251,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="G796" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H796" t="s">
         <v>5</v>
@@ -8262,7 +8268,7 @@
         <v>2</v>
       </c>
       <c r="G797" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H797" t="s">
         <v>5</v>
@@ -8273,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="G798" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H798" t="s">
         <v>5</v>
@@ -8284,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="G799" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H799" t="s">
         <v>5</v>
@@ -8295,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="G800" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H800" t="s">
         <v>5</v>
@@ -8306,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="G801" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H801" t="s">
         <v>5</v>
@@ -8317,7 +8323,7 @@
         <v>2</v>
       </c>
       <c r="G802" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H802" t="s">
         <v>5</v>
@@ -8328,7 +8334,7 @@
         <v>2</v>
       </c>
       <c r="G803" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H803" t="s">
         <v>5</v>
@@ -8339,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="G804" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H804" t="s">
         <v>5</v>
@@ -8350,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="G805" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H805" t="s">
         <v>5</v>
@@ -8361,7 +8367,7 @@
         <v>2</v>
       </c>
       <c r="G806" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H806" t="s">
         <v>5</v>
@@ -8372,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="G807" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H807" t="s">
         <v>5</v>
@@ -8383,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="G808" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H808" t="s">
         <v>5</v>
@@ -8394,7 +8400,7 @@
         <v>2</v>
       </c>
       <c r="G809" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H809" t="s">
         <v>5</v>
@@ -8405,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="G810" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H810" t="s">
         <v>5</v>
@@ -8416,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="G811" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H811" t="s">
         <v>5</v>
@@ -8427,7 +8433,7 @@
         <v>2</v>
       </c>
       <c r="G812" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H812" t="s">
         <v>5</v>
@@ -8438,7 +8444,7 @@
         <v>2</v>
       </c>
       <c r="G813" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H813" t="s">
         <v>5</v>
@@ -8449,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="G814" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H814" t="s">
         <v>5</v>
@@ -8460,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="G815" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H815" t="s">
         <v>5</v>
@@ -8471,31 +8477,31 @@
         <v>2</v>
       </c>
       <c r="G816" t="s">
+        <v>195</v>
+      </c>
+      <c r="H816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F817" t="s">
+        <v>2</v>
+      </c>
+      <c r="G817" t="s">
         <v>196</v>
       </c>
-      <c r="H816" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F817" t="s">
-        <v>2</v>
-      </c>
-      <c r="G817" t="s">
-        <v>197</v>
-      </c>
       <c r="H817" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E818" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E819" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F819" t="s">
         <v>3</v>
@@ -8504,7 +8510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E820" s="5" t="s">
         <v>166</v>
       </c>
@@ -8515,12 +8521,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D821" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D822" s="3" t="s">
         <v>20</v>
       </c>
@@ -8529,7 +8535,7 @@
       <c r="G822" s="3"/>
       <c r="H822" s="3"/>
     </row>
-    <row r="823" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D823" s="3"/>
       <c r="E823" s="3" t="s">
         <v>14</v>
@@ -8538,7 +8544,7 @@
       <c r="G823" s="3"/>
       <c r="H823" s="3"/>
     </row>
-    <row r="824" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D824" s="3"/>
       <c r="E824" s="3" t="s">
         <v>5</v>
@@ -8547,7 +8553,7 @@
       <c r="G824" s="3"/>
       <c r="H824" s="3"/>
     </row>
-    <row r="825" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D825" s="3"/>
       <c r="E825" s="3" t="s">
         <v>23</v>
@@ -8560,7 +8566,7 @@
       </c>
       <c r="H825" s="3"/>
     </row>
-    <row r="826" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D826" s="3" t="s">
         <v>5</v>
       </c>
@@ -8569,23 +8575,415 @@
       <c r="G826" s="3"/>
       <c r="H826" s="3"/>
     </row>
-    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C827" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="B828" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A829" t="s">
+    <row r="829" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B829" t="s">
+        <v>2</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D829" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C830">
         <v>1</v>
       </c>
-    </row>
-    <row r="831" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="2" t="s">
+      <c r="D830" t="s">
+        <v>3</v>
+      </c>
+      <c r="E830" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="831" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C831" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="832" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D832" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="833" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E833" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="834" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F834" t="s">
+        <v>2</v>
+      </c>
+      <c r="G834" t="s">
+        <v>173</v>
+      </c>
+      <c r="H834" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F835" t="s">
+        <v>2</v>
+      </c>
+      <c r="G835" t="s">
+        <v>174</v>
+      </c>
+      <c r="H835" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F836" t="s">
+        <v>2</v>
+      </c>
+      <c r="G836" t="s">
+        <v>175</v>
+      </c>
+      <c r="H836" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F837" t="s">
+        <v>2</v>
+      </c>
+      <c r="G837" t="s">
+        <v>176</v>
+      </c>
+      <c r="H837" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F838" t="s">
+        <v>2</v>
+      </c>
+      <c r="G838" t="s">
+        <v>177</v>
+      </c>
+      <c r="H838" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="839" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F839" t="s">
+        <v>2</v>
+      </c>
+      <c r="G839" t="s">
+        <v>178</v>
+      </c>
+      <c r="H839" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F840" t="s">
+        <v>2</v>
+      </c>
+      <c r="G840" t="s">
+        <v>179</v>
+      </c>
+      <c r="H840" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F841" t="s">
+        <v>2</v>
+      </c>
+      <c r="G841" t="s">
+        <v>180</v>
+      </c>
+      <c r="H841" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F842" t="s">
+        <v>2</v>
+      </c>
+      <c r="G842" t="s">
+        <v>181</v>
+      </c>
+      <c r="H842" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F843" t="s">
+        <v>2</v>
+      </c>
+      <c r="G843" t="s">
+        <v>182</v>
+      </c>
+      <c r="H843" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F844" t="s">
+        <v>2</v>
+      </c>
+      <c r="G844" t="s">
+        <v>183</v>
+      </c>
+      <c r="H844" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="845" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F845" t="s">
+        <v>2</v>
+      </c>
+      <c r="G845" t="s">
+        <v>184</v>
+      </c>
+      <c r="H845" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F846" t="s">
+        <v>2</v>
+      </c>
+      <c r="G846" t="s">
+        <v>185</v>
+      </c>
+      <c r="H846" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="847" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F847" t="s">
+        <v>2</v>
+      </c>
+      <c r="G847" t="s">
+        <v>186</v>
+      </c>
+      <c r="H847" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="848" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F848" t="s">
+        <v>2</v>
+      </c>
+      <c r="G848" t="s">
+        <v>187</v>
+      </c>
+      <c r="H848" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F849" t="s">
+        <v>2</v>
+      </c>
+      <c r="G849" t="s">
+        <v>188</v>
+      </c>
+      <c r="H849" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="850" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F850" t="s">
+        <v>2</v>
+      </c>
+      <c r="G850" t="s">
+        <v>189</v>
+      </c>
+      <c r="H850" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F851" t="s">
+        <v>2</v>
+      </c>
+      <c r="G851" t="s">
+        <v>190</v>
+      </c>
+      <c r="H851" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F852" t="s">
+        <v>2</v>
+      </c>
+      <c r="G852" t="s">
+        <v>191</v>
+      </c>
+      <c r="H852" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="853" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F853" t="s">
+        <v>2</v>
+      </c>
+      <c r="G853" t="s">
+        <v>192</v>
+      </c>
+      <c r="H853" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="854" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F854" t="s">
+        <v>2</v>
+      </c>
+      <c r="G854" t="s">
+        <v>193</v>
+      </c>
+      <c r="H854" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="855" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F855" t="s">
+        <v>2</v>
+      </c>
+      <c r="G855" t="s">
+        <v>194</v>
+      </c>
+      <c r="H855" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="856" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F856" t="s">
+        <v>2</v>
+      </c>
+      <c r="G856" t="s">
+        <v>195</v>
+      </c>
+      <c r="H856" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="857" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F857" t="s">
+        <v>2</v>
+      </c>
+      <c r="G857" t="s">
+        <v>196</v>
+      </c>
+      <c r="H857" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="858" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E858" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="859" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E859" t="s">
+        <v>172</v>
+      </c>
+      <c r="F859" t="s">
+        <v>3</v>
+      </c>
+      <c r="G859" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="860" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="E860" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F860" t="s">
+        <v>164</v>
+      </c>
+      <c r="G860" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="861" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D861" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="862" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D862" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E862" s="3"/>
+      <c r="F862" s="3"/>
+      <c r="G862" s="3"/>
+      <c r="H862" s="3"/>
+    </row>
+    <row r="863" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D863" s="3"/>
+      <c r="E863" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F863" s="3"/>
+      <c r="G863" s="3"/>
+      <c r="H863" s="3"/>
+    </row>
+    <row r="864" spans="4:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D864" s="3"/>
+      <c r="E864" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F864" s="3"/>
+      <c r="G864" s="3"/>
+      <c r="H864" s="3"/>
+    </row>
+    <row r="865" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D865" s="3"/>
+      <c r="E865" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F865" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G865" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H865" s="3"/>
+    </row>
+    <row r="866" spans="1:8" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D866" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E866" s="3"/>
+      <c r="F866" s="3"/>
+      <c r="G866" s="3"/>
+      <c r="H866" s="3"/>
+    </row>
+    <row r="867" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C867" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B868" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="196">
   <si>
     <t>BLOCK_GROUP BlockGrouping[] = {</t>
     <phoneticPr fontId="1"/>
@@ -688,34 +688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>// b_ColorSync</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BP_STROBE_24</t>
   </si>
   <si>
@@ -794,16 +766,25 @@
     <t>23,</t>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"CAM_STROBE_SINGLE_COLOR"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>"CAM_STROBE_COLOR_SYNC"</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// f_ColorBar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F_COLORBAR_SYNC</t>
+  </si>
+  <si>
+    <t>F_COLORBAR_COL0</t>
+  </si>
+  <si>
+    <t>F_COLORBAR_STROBE</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C791" sqref="C791"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1157,7 +1140,7 @@
     <col min="2" max="2" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
@@ -1355,13 +1338,13 @@
     </row>
     <row r="21" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1615,13 +1598,13 @@
     </row>
     <row r="49" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E49" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1809,13 +1792,13 @@
     </row>
     <row r="71" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E71" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2003,13 +1986,13 @@
     </row>
     <row r="93" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E93" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2263,13 +2246,13 @@
     </row>
     <row r="121" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E121" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F121" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2523,13 +2506,13 @@
     </row>
     <row r="149" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E149" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F149" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2717,13 +2700,13 @@
     </row>
     <row r="171" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E171" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F171" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2911,13 +2894,13 @@
     </row>
     <row r="193" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E193" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F193" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3171,13 +3154,13 @@
     </row>
     <row r="221" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E221" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F221" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3224,13 +3207,13 @@
     </row>
     <row r="228" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E228" s="5" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F228" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3484,13 +3467,13 @@
     </row>
     <row r="256" spans="5:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E256" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F256" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="257" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3537,13 +3520,13 @@
     </row>
     <row r="263" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E263" s="5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F263" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G263" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="264" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3797,13 +3780,13 @@
     </row>
     <row r="291" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E291" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F291" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3850,13 +3833,13 @@
     </row>
     <row r="298" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E298" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F298" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G298" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="299" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4110,13 +4093,13 @@
     </row>
     <row r="326" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E326" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F326" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G326" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="327" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4163,13 +4146,13 @@
     </row>
     <row r="333" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E333" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F333" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G333" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="334" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4423,13 +4406,13 @@
     </row>
     <row r="361" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E361" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F361" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="362" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4683,13 +4666,13 @@
     </row>
     <row r="389" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E389" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F389" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G389" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="390" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4877,13 +4860,13 @@
     </row>
     <row r="411" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E411" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F411" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G411" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="412" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5071,13 +5054,13 @@
     </row>
     <row r="433" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E433" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F433" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G433" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="434" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5331,13 +5314,13 @@
     </row>
     <row r="461" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E461" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F461" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G461" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="462" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5591,13 +5574,13 @@
     </row>
     <row r="489" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E489" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F489" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G489" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="490" spans="3:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5785,13 +5768,13 @@
     </row>
     <row r="511" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E511" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F511" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G511" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="512" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5979,13 +5962,13 @@
     </row>
     <row r="533" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E533" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F533" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G533" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="534" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6239,13 +6222,13 @@
     </row>
     <row r="561" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E561" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F561" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G561" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="562" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6292,13 +6275,13 @@
     </row>
     <row r="568" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E568" s="5" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F568" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G568" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="569" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6552,13 +6535,13 @@
     </row>
     <row r="596" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E596" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F596" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G596" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="597" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6605,13 +6588,13 @@
     </row>
     <row r="603" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E603" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F603" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G603" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="604" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6865,13 +6848,13 @@
     </row>
     <row r="631" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E631" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F631" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G631" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="632" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -6918,13 +6901,13 @@
     </row>
     <row r="638" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E638" s="5" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F638" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G638" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="639" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7178,13 +7161,13 @@
     </row>
     <row r="666" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E666" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F666" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G666" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="667" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7231,13 +7214,13 @@
     </row>
     <row r="673" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E673" s="5" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F673" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G673" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="674" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7370,13 +7353,13 @@
     </row>
     <row r="690" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E690" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F690" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G690" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="691" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7520,13 +7503,13 @@
     </row>
     <row r="708" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E708" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F708" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G708" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="709" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7670,13 +7653,13 @@
     </row>
     <row r="726" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E726" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F726" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G726" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="727" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7820,13 +7803,13 @@
     </row>
     <row r="744" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E744" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F744" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G744" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="745" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7970,13 +7953,13 @@
     </row>
     <row r="762" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E762" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F762" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G762" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="763" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -8120,13 +8103,13 @@
     </row>
     <row r="780" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E780" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F780" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G780" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="781" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -8198,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D789" t="s">
         <v>3</v>
@@ -8206,7 +8189,7 @@
     </row>
     <row r="790" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D790" t="s">
         <v>3</v>
@@ -8235,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="G794" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H794" t="s">
         <v>5</v>
@@ -8246,7 +8229,7 @@
         <v>2</v>
       </c>
       <c r="G795" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H795" t="s">
         <v>5</v>
@@ -8257,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="G796" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H796" t="s">
         <v>5</v>
@@ -8268,7 +8251,7 @@
         <v>2</v>
       </c>
       <c r="G797" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H797" t="s">
         <v>5</v>
@@ -8279,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="G798" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H798" t="s">
         <v>5</v>
@@ -8290,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="G799" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H799" t="s">
         <v>5</v>
@@ -8301,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="G800" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H800" t="s">
         <v>5</v>
@@ -8312,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="G801" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H801" t="s">
         <v>5</v>
@@ -8323,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="G802" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H802" t="s">
         <v>5</v>
@@ -8334,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="G803" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H803" t="s">
         <v>5</v>
@@ -8345,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="G804" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H804" t="s">
         <v>5</v>
@@ -8356,7 +8339,7 @@
         <v>2</v>
       </c>
       <c r="G805" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H805" t="s">
         <v>5</v>
@@ -8367,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="G806" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H806" t="s">
         <v>5</v>
@@ -8378,7 +8361,7 @@
         <v>2</v>
       </c>
       <c r="G807" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H807" t="s">
         <v>5</v>
@@ -8389,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="G808" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H808" t="s">
         <v>5</v>
@@ -8400,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="G809" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H809" t="s">
         <v>5</v>
@@ -8411,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="G810" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H810" t="s">
         <v>5</v>
@@ -8422,7 +8405,7 @@
         <v>2</v>
       </c>
       <c r="G811" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H811" t="s">
         <v>5</v>
@@ -8433,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="G812" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H812" t="s">
         <v>5</v>
@@ -8444,7 +8427,7 @@
         <v>2</v>
       </c>
       <c r="G813" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H813" t="s">
         <v>5</v>
@@ -8455,7 +8438,7 @@
         <v>2</v>
       </c>
       <c r="G814" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H814" t="s">
         <v>5</v>
@@ -8466,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="G815" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H815" t="s">
         <v>5</v>
@@ -8477,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="G816" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H816" t="s">
         <v>5</v>
@@ -8488,7 +8471,7 @@
         <v>2</v>
       </c>
       <c r="G817" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H817" t="s">
         <v>5</v>
@@ -8501,7 +8484,7 @@
     </row>
     <row r="819" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E819" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F819" t="s">
         <v>3</v>
@@ -8512,13 +8495,13 @@
     </row>
     <row r="820" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E820" s="5" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F820" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G820" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="821" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -8590,7 +8573,7 @@
         <v>2</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D829" t="s">
         <v>3</v>
@@ -8627,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="G834" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H834" t="s">
         <v>5</v>
@@ -8638,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="G835" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H835" t="s">
         <v>5</v>
@@ -8649,7 +8632,7 @@
         <v>2</v>
       </c>
       <c r="G836" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H836" t="s">
         <v>5</v>
@@ -8660,7 +8643,7 @@
         <v>2</v>
       </c>
       <c r="G837" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H837" t="s">
         <v>5</v>
@@ -8671,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="G838" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H838" t="s">
         <v>5</v>
@@ -8682,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="G839" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H839" t="s">
         <v>5</v>
@@ -8693,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="G840" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H840" t="s">
         <v>5</v>
@@ -8704,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="G841" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H841" t="s">
         <v>5</v>
@@ -8715,7 +8698,7 @@
         <v>2</v>
       </c>
       <c r="G842" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H842" t="s">
         <v>5</v>
@@ -8726,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="G843" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H843" t="s">
         <v>5</v>
@@ -8737,7 +8720,7 @@
         <v>2</v>
       </c>
       <c r="G844" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H844" t="s">
         <v>5</v>
@@ -8748,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="G845" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H845" t="s">
         <v>5</v>
@@ -8759,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="G846" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H846" t="s">
         <v>5</v>
@@ -8770,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="G847" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H847" t="s">
         <v>5</v>
@@ -8781,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="G848" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H848" t="s">
         <v>5</v>
@@ -8792,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="G849" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H849" t="s">
         <v>5</v>
@@ -8803,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="G850" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H850" t="s">
         <v>5</v>
@@ -8814,7 +8797,7 @@
         <v>2</v>
       </c>
       <c r="G851" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H851" t="s">
         <v>5</v>
@@ -8825,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="G852" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H852" t="s">
         <v>5</v>
@@ -8836,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="G853" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H853" t="s">
         <v>5</v>
@@ -8847,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="G854" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H854" t="s">
         <v>5</v>
@@ -8858,7 +8841,7 @@
         <v>2</v>
       </c>
       <c r="G855" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H855" t="s">
         <v>5</v>
@@ -8869,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="G856" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H856" t="s">
         <v>5</v>
@@ -8880,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="G857" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H857" t="s">
         <v>5</v>
@@ -8893,7 +8876,7 @@
     </row>
     <row r="859" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E859" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F859" t="s">
         <v>3</v>
@@ -8904,13 +8887,13 @@
     </row>
     <row r="860" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="E860" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F860" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G860" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="861" spans="4:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">

--- a/BlockGrouping.xlsx
+++ b/BlockGrouping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1200" windowWidth="35100" windowHeight="22000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32640" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
